--- a/dados/dn15_var_clim.xlsx
+++ b/dados/dn15_var_clim.xlsx
@@ -405,16 +405,16 @@
         <v>10.72</v>
       </c>
       <c r="D2">
-        <v>167.1666717529297</v>
+        <v>165.9799487183229</v>
       </c>
       <c r="E2">
-        <v>26.00422859191895</v>
+        <v>25.97341210096741</v>
       </c>
       <c r="F2">
-        <v>30.70931243896484</v>
+        <v>30.71641696746064</v>
       </c>
       <c r="G2">
-        <v>21.29999923706055</v>
+        <v>21.23085645378876</v>
       </c>
     </row>
     <row r="3">
@@ -428,16 +428,16 @@
         <v>8.76</v>
       </c>
       <c r="D3">
-        <v>157</v>
+        <v>155.0750370000612</v>
       </c>
       <c r="E3">
-        <v>25.78002166748047</v>
+        <v>25.88918667749023</v>
       </c>
       <c r="F3">
-        <v>30.64345741271973</v>
+        <v>30.77513975179671</v>
       </c>
       <c r="G3">
-        <v>20.91493797302246</v>
+        <v>21.00253205327987</v>
       </c>
     </row>
     <row r="4">
@@ -451,16 +451,16 @@
         <v>8.6</v>
       </c>
       <c r="D4">
-        <v>199.0833282470703</v>
+        <v>198.14581289505</v>
       </c>
       <c r="E4">
-        <v>26.484375</v>
+        <v>26.45062695985795</v>
       </c>
       <c r="F4">
-        <v>30.53897857666016</v>
+        <v>30.4918037270546</v>
       </c>
       <c r="G4">
-        <v>22.43010330200195</v>
+        <v>22.41029371173859</v>
       </c>
     </row>
     <row r="5">
@@ -474,16 +474,16 @@
         <v>10.05</v>
       </c>
       <c r="D5">
-        <v>194</v>
+        <v>193.7466090350069</v>
       </c>
       <c r="E5">
-        <v>25.32162475585938</v>
+        <v>25.33335695512412</v>
       </c>
       <c r="F5">
-        <v>30.96633338928223</v>
+        <v>30.95076690088646</v>
       </c>
       <c r="G5">
-        <v>19.67487525939941</v>
+        <v>19.71592565759083</v>
       </c>
     </row>
     <row r="6">
@@ -497,16 +497,16 @@
         <v>11.18</v>
       </c>
       <c r="D6">
-        <v>165.3333282470703</v>
+        <v>165.8149659482422</v>
       </c>
       <c r="E6">
-        <v>23.52750015258789</v>
+        <v>23.55512763452149</v>
       </c>
       <c r="F6">
-        <v>30.02400016784668</v>
+        <v>30.07491714177704</v>
       </c>
       <c r="G6">
-        <v>17.03106307983398</v>
+        <v>17.03572044056701</v>
       </c>
     </row>
     <row r="7">
@@ -520,16 +520,16 @@
         <v>9.84</v>
       </c>
       <c r="D7">
-        <v>167</v>
+        <v>166.4517292056801</v>
       </c>
       <c r="E7">
-        <v>25.11808395385742</v>
+        <v>25.03717164022225</v>
       </c>
       <c r="F7">
-        <v>31.17616653442383</v>
+        <v>31.12633206679364</v>
       </c>
       <c r="G7">
-        <v>19.05699920654297</v>
+        <v>18.94638821880828</v>
       </c>
     </row>
     <row r="8">
@@ -543,16 +543,16 @@
         <v>12</v>
       </c>
       <c r="D8">
-        <v>171.6666717529297</v>
+        <v>169.9199887229004</v>
       </c>
       <c r="E8">
-        <v>24.89639472961426</v>
+        <v>25.01986070667267</v>
       </c>
       <c r="F8">
-        <v>30.91262435913086</v>
+        <v>31.0884958600235</v>
       </c>
       <c r="G8">
-        <v>18.88062477111816</v>
+        <v>18.95082459651947</v>
       </c>
     </row>
     <row r="9">
@@ -566,16 +566,16 @@
         <v>10.93</v>
       </c>
       <c r="D9">
-        <v>166.75</v>
+        <v>168.7249993896484</v>
       </c>
       <c r="E9">
-        <v>24.46116638183594</v>
+        <v>24.53760536193847</v>
       </c>
       <c r="F9">
-        <v>30.91427040100098</v>
+        <v>30.98338790893554</v>
       </c>
       <c r="G9">
-        <v>18.00712585449219</v>
+        <v>18.09096727371216</v>
       </c>
     </row>
     <row r="10">
@@ -589,16 +589,16 @@
         <v>8.640000000000001</v>
       </c>
       <c r="D10">
-        <v>176.0833282470703</v>
+        <v>177.0783437682496</v>
       </c>
       <c r="E10">
-        <v>26.09612464904785</v>
+        <v>26.09330098648834</v>
       </c>
       <c r="F10">
-        <v>30.67610359191895</v>
+        <v>30.66886691181564</v>
       </c>
       <c r="G10">
-        <v>21.51264572143555</v>
+        <v>21.51613624373245</v>
       </c>
     </row>
     <row r="11">
@@ -612,16 +612,16 @@
         <v>5.81</v>
       </c>
       <c r="D11">
-        <v>204.25</v>
+        <v>207.6740281822514</v>
       </c>
       <c r="E11">
-        <v>26.23220825195313</v>
+        <v>26.27876129708443</v>
       </c>
       <c r="F11">
-        <v>30.42970848083496</v>
+        <v>30.4404741053009</v>
       </c>
       <c r="G11">
-        <v>22.03656196594238</v>
+        <v>22.11794893490602</v>
       </c>
     </row>
     <row r="12">
@@ -635,16 +635,16 @@
         <v>9.300000000000001</v>
       </c>
       <c r="D12">
-        <v>165.75</v>
+        <v>164.2433171794591</v>
       </c>
       <c r="E12">
-        <v>26.36824989318848</v>
+        <v>26.34620648242704</v>
       </c>
       <c r="F12">
-        <v>30.2101879119873</v>
+        <v>30.17974043958889</v>
       </c>
       <c r="G12">
-        <v>22.52610397338867</v>
+        <v>22.51082623216678</v>
       </c>
     </row>
     <row r="13">
@@ -658,16 +658,16 @@
         <v>9.44</v>
       </c>
       <c r="D13">
-        <v>200.3333282470703</v>
+        <v>201.1755963378906</v>
       </c>
       <c r="E13">
-        <v>26.40093803405762</v>
+        <v>26.38707661437989</v>
       </c>
       <c r="F13">
-        <v>30.45635414123535</v>
+        <v>30.45037283935547</v>
       </c>
       <c r="G13">
-        <v>22.34587478637695</v>
+        <v>22.32378343505859</v>
       </c>
     </row>
     <row r="14">
@@ -681,16 +681,16 @@
         <v>6.75</v>
       </c>
       <c r="D14">
-        <v>212.5</v>
+        <v>215.6335791403772</v>
       </c>
       <c r="E14">
-        <v>26.05697822570801</v>
+        <v>25.70818487748888</v>
       </c>
       <c r="F14">
-        <v>31.14279174804688</v>
+        <v>30.77777146003309</v>
       </c>
       <c r="G14">
-        <v>20.97135353088379</v>
+        <v>20.63813965726694</v>
       </c>
     </row>
     <row r="15">
@@ -704,16 +704,16 @@
         <v>4.36</v>
       </c>
       <c r="D15">
-        <v>123.4166641235352</v>
+        <v>120.0513320312501</v>
       </c>
       <c r="E15">
-        <v>21.44368743896484</v>
+        <v>22.13149528503416</v>
       </c>
       <c r="F15">
-        <v>26.89126968383789</v>
+        <v>27.6832185821533</v>
       </c>
       <c r="G15">
-        <v>15.99370765686035</v>
+        <v>16.57897660827635</v>
       </c>
     </row>
     <row r="16">
@@ -727,16 +727,16 @@
         <v>13.54</v>
       </c>
       <c r="D16">
-        <v>55.58333206176758</v>
+        <v>55.84913909160556</v>
       </c>
       <c r="E16">
-        <v>21.70360374450684</v>
+        <v>21.66804579936376</v>
       </c>
       <c r="F16">
-        <v>26.33116722106934</v>
+        <v>26.30176927119897</v>
       </c>
       <c r="G16">
-        <v>17.07541656494141</v>
+        <v>17.03406910948956</v>
       </c>
     </row>
     <row r="17">
@@ -750,16 +750,16 @@
         <v>9.93</v>
       </c>
       <c r="D17">
-        <v>55.58333206176758</v>
+        <v>54.36965891406943</v>
       </c>
       <c r="E17">
-        <v>21.70360374450684</v>
+        <v>21.73097962017015</v>
       </c>
       <c r="F17">
-        <v>26.33116722106934</v>
+        <v>26.35245215640705</v>
       </c>
       <c r="G17">
-        <v>17.07541656494141</v>
+        <v>17.10918251831473</v>
       </c>
     </row>
     <row r="18">
@@ -773,16 +773,16 @@
         <v>4.18</v>
       </c>
       <c r="D18">
-        <v>61</v>
+        <v>66.54088218817773</v>
       </c>
       <c r="E18">
-        <v>21.3366870880127</v>
+        <v>21.22179795083994</v>
       </c>
       <c r="F18">
-        <v>25.7121467590332</v>
+        <v>25.52052519154564</v>
       </c>
       <c r="G18">
-        <v>16.96070861816406</v>
+        <v>16.92243849378401</v>
       </c>
     </row>
     <row r="19">
@@ -796,16 +796,16 @@
         <v>16.47</v>
       </c>
       <c r="D19">
-        <v>65.41666412353516</v>
+        <v>63.86880173797688</v>
       </c>
       <c r="E19">
-        <v>23.06218719482422</v>
+        <v>23.76068832949295</v>
       </c>
       <c r="F19">
-        <v>28.47058296203613</v>
+        <v>29.30603051575971</v>
       </c>
       <c r="G19">
-        <v>17.65385437011719</v>
+        <v>18.214556244451</v>
       </c>
     </row>
     <row r="20">
@@ -819,16 +819,16 @@
         <v>13.62</v>
       </c>
       <c r="D20">
-        <v>67.25</v>
+        <v>66.84690564161133</v>
       </c>
       <c r="E20">
-        <v>23.41979217529297</v>
+        <v>23.33253651376855</v>
       </c>
       <c r="F20">
-        <v>28.77689552307129</v>
+        <v>28.69859103060567</v>
       </c>
       <c r="G20">
-        <v>18.0631046295166</v>
+        <v>17.96684668410348</v>
       </c>
     </row>
     <row r="21">
@@ -842,16 +842,16 @@
         <v>8.85</v>
       </c>
       <c r="D21">
-        <v>67.08333587646484</v>
+        <v>63.64457588196597</v>
       </c>
       <c r="E21">
-        <v>22.28281211853027</v>
+        <v>23.35040752079222</v>
       </c>
       <c r="F21">
-        <v>27.61204147338867</v>
+        <v>28.80159784202318</v>
       </c>
       <c r="G21">
-        <v>16.9550838470459</v>
+        <v>17.90006486737646</v>
       </c>
     </row>
     <row r="22">
@@ -865,16 +865,16 @@
         <v>13.95</v>
       </c>
       <c r="D22">
-        <v>50.5</v>
+        <v>50.95362725588085</v>
       </c>
       <c r="E22">
-        <v>22.87012481689453</v>
+        <v>22.8336065966463</v>
       </c>
       <c r="F22">
-        <v>27.65502166748047</v>
+        <v>27.62040585586699</v>
       </c>
       <c r="G22">
-        <v>18.08768653869629</v>
+        <v>18.04866772489604</v>
       </c>
     </row>
     <row r="23">
@@ -888,16 +888,16 @@
         <v>8.33</v>
       </c>
       <c r="D23">
-        <v>57.58333206176758</v>
+        <v>57.51043488788885</v>
       </c>
       <c r="E23">
-        <v>22.19964599609375</v>
+        <v>22.23808008698042</v>
       </c>
       <c r="F23">
-        <v>26.80462455749512</v>
+        <v>26.82907245762546</v>
       </c>
       <c r="G23">
-        <v>17.59433364868164</v>
+        <v>17.64668258527868</v>
       </c>
     </row>
     <row r="24">
@@ -911,16 +911,16 @@
         <v>17.28</v>
       </c>
       <c r="D24">
-        <v>58.33333206176758</v>
+        <v>58.89313932576765</v>
       </c>
       <c r="E24">
-        <v>22.25529098510742</v>
+        <v>22.49477058835706</v>
       </c>
       <c r="F24">
-        <v>26.9459171295166</v>
+        <v>27.22720159417254</v>
       </c>
       <c r="G24">
-        <v>17.56664657592773</v>
+        <v>17.76299395519447</v>
       </c>
     </row>
     <row r="25">
@@ -934,16 +934,16 @@
         <v>6.45</v>
       </c>
       <c r="D25">
-        <v>94.75</v>
+        <v>105.2099149379808</v>
       </c>
       <c r="E25">
-        <v>24.54593658447266</v>
+        <v>24.58601543989676</v>
       </c>
       <c r="F25">
-        <v>29.37060356140137</v>
+        <v>29.42890212273833</v>
       </c>
       <c r="G25">
-        <v>19.72122955322266</v>
+        <v>19.74315798731434</v>
       </c>
     </row>
     <row r="26">
@@ -957,16 +957,16 @@
         <v>8.890000000000001</v>
       </c>
       <c r="D26">
-        <v>95.41666412353516</v>
+        <v>85.3913811262978</v>
       </c>
       <c r="E26">
-        <v>23.09354209899902</v>
+        <v>23.43887554284106</v>
       </c>
       <c r="F26">
-        <v>27.57497978210449</v>
+        <v>27.97311559069559</v>
       </c>
       <c r="G26">
-        <v>18.61372947692871</v>
+        <v>18.90493065044434</v>
       </c>
     </row>
     <row r="27">
@@ -980,16 +980,16 @@
         <v>9.210000000000001</v>
       </c>
       <c r="D27">
-        <v>97.33333587646484</v>
+        <v>99.84797286076153</v>
       </c>
       <c r="E27">
-        <v>22.16745758056641</v>
+        <v>23.00678790548858</v>
       </c>
       <c r="F27">
-        <v>26.1151237487793</v>
+        <v>26.98455069148383</v>
       </c>
       <c r="G27">
-        <v>18.21981239318848</v>
+        <v>19.02872195609852</v>
       </c>
     </row>
     <row r="28">
@@ -1003,16 +1003,16 @@
         <v>6.41</v>
       </c>
       <c r="D28">
-        <v>133.1666717529297</v>
+        <v>134.8839071915649</v>
       </c>
       <c r="E28">
-        <v>22.41439628601074</v>
+        <v>21.86396693013202</v>
       </c>
       <c r="F28">
-        <v>27.84577178955078</v>
+        <v>27.2898590309677</v>
       </c>
       <c r="G28">
-        <v>16.98429107666016</v>
+        <v>16.43900510480525</v>
       </c>
     </row>
     <row r="29">
@@ -1026,16 +1026,16 @@
         <v>3.33</v>
       </c>
       <c r="D29">
-        <v>133.1666717529297</v>
+        <v>134.5610905394835</v>
       </c>
       <c r="E29">
-        <v>22.41439628601074</v>
+        <v>21.95826645979481</v>
       </c>
       <c r="F29">
-        <v>27.84577178955078</v>
+        <v>27.38665884138357</v>
       </c>
       <c r="G29">
-        <v>16.98429107666016</v>
+        <v>16.53084804791371</v>
       </c>
     </row>
     <row r="30">
@@ -1049,16 +1049,16 @@
         <v>4.64</v>
       </c>
       <c r="D30">
-        <v>133.1666717529297</v>
+        <v>134.2439885773505</v>
       </c>
       <c r="E30">
-        <v>22.41439628601074</v>
+        <v>22.05100887011493</v>
       </c>
       <c r="F30">
-        <v>27.84577178955078</v>
+        <v>27.48175188981309</v>
       </c>
       <c r="G30">
-        <v>16.98429107666016</v>
+        <v>16.62128335504356</v>
       </c>
     </row>
     <row r="31">
@@ -1072,16 +1072,16 @@
         <v>5.27</v>
       </c>
       <c r="D31">
-        <v>133.1666717529297</v>
+        <v>133.932601305166</v>
       </c>
       <c r="E31">
-        <v>22.41439628601074</v>
+        <v>22.14219416109237</v>
       </c>
       <c r="F31">
-        <v>27.84577178955078</v>
+        <v>27.57513817625627</v>
       </c>
       <c r="G31">
-        <v>16.98429107666016</v>
+        <v>16.71031102619479</v>
       </c>
     </row>
     <row r="32">
@@ -1095,16 +1095,16 @@
         <v>5.22</v>
       </c>
       <c r="D32">
-        <v>133.1666717529297</v>
+        <v>135.2124900897</v>
       </c>
       <c r="E32">
-        <v>22.41439628601074</v>
+        <v>21.76811226954248</v>
       </c>
       <c r="F32">
-        <v>27.84577178955078</v>
+        <v>27.19135004028247</v>
       </c>
       <c r="G32">
-        <v>16.98429107666016</v>
+        <v>16.345760956798</v>
       </c>
     </row>
     <row r="33">
@@ -1118,16 +1118,16 @@
         <v>5.86</v>
       </c>
       <c r="D33">
-        <v>133.1666717529297</v>
+        <v>134.9115224354425</v>
       </c>
       <c r="E33">
-        <v>22.41439628601074</v>
+        <v>21.84048598967463</v>
       </c>
       <c r="F33">
-        <v>27.84577178955078</v>
+        <v>27.26960461170321</v>
       </c>
       <c r="G33">
-        <v>16.98429107666016</v>
+        <v>16.41225584644388</v>
       </c>
     </row>
     <row r="34">
@@ -1141,16 +1141,16 @@
         <v>4.94</v>
       </c>
       <c r="D34">
-        <v>133.1666717529297</v>
+        <v>134.603155667111</v>
       </c>
       <c r="E34">
-        <v>22.41439628601074</v>
+        <v>21.93084826400259</v>
       </c>
       <c r="F34">
-        <v>27.84577178955078</v>
+        <v>27.36208878776029</v>
       </c>
       <c r="G34">
-        <v>16.98429107666016</v>
+        <v>16.50053951049493</v>
       </c>
     </row>
     <row r="35">
@@ -1164,16 +1164,16 @@
         <v>4.45</v>
       </c>
       <c r="D35">
-        <v>133.1666717529297</v>
+        <v>134.3001745383035</v>
       </c>
       <c r="E35">
-        <v>22.41439628601074</v>
+        <v>22.01975303316318</v>
       </c>
       <c r="F35">
-        <v>27.84577178955078</v>
+        <v>27.45296731528836</v>
       </c>
       <c r="G35">
-        <v>16.98429107666016</v>
+        <v>16.58751370775579</v>
       </c>
     </row>
     <row r="36">
@@ -1187,16 +1187,16 @@
         <v>4.64</v>
       </c>
       <c r="D36">
-        <v>133.1666717529297</v>
+        <v>134.0032402932627</v>
       </c>
       <c r="E36">
-        <v>22.41439628601074</v>
+        <v>22.10700021230449</v>
       </c>
       <c r="F36">
-        <v>27.84577178955078</v>
+        <v>27.54203702855978</v>
       </c>
       <c r="G36">
-        <v>16.98429107666016</v>
+        <v>16.67298132557241</v>
       </c>
     </row>
     <row r="37">
@@ -1210,16 +1210,16 @@
         <v>4.78</v>
       </c>
       <c r="D37">
-        <v>133.1666717529297</v>
+        <v>135.2256586862214</v>
       </c>
       <c r="E37">
-        <v>22.41439628601074</v>
+        <v>21.74856770257836</v>
       </c>
       <c r="F37">
-        <v>27.84577178955078</v>
+        <v>27.17541028878826</v>
       </c>
       <c r="G37">
-        <v>16.98429107666016</v>
+        <v>16.32257018030921</v>
       </c>
     </row>
     <row r="38">
@@ -1233,16 +1233,16 @@
         <v>6.47</v>
       </c>
       <c r="D38">
-        <v>127.75</v>
+        <v>126.2981822840749</v>
       </c>
       <c r="E38">
-        <v>20.42175102233887</v>
+        <v>20.69692863619138</v>
       </c>
       <c r="F38">
-        <v>25.92935371398926</v>
+        <v>26.19763257553327</v>
       </c>
       <c r="G38">
-        <v>14.91383361816406</v>
+        <v>15.19582147581394</v>
       </c>
     </row>
     <row r="39">
@@ -1256,16 +1256,16 @@
         <v>6.09</v>
       </c>
       <c r="D39">
-        <v>127.75</v>
+        <v>126.3994795768779</v>
       </c>
       <c r="E39">
-        <v>20.42175102233887</v>
+        <v>20.68481958784238</v>
       </c>
       <c r="F39">
-        <v>25.92935371398926</v>
+        <v>26.18176902802032</v>
       </c>
       <c r="G39">
-        <v>14.91383361816406</v>
+        <v>15.1874735766361</v>
       </c>
     </row>
     <row r="40">
@@ -1279,16 +1279,16 @@
         <v>6.19</v>
       </c>
       <c r="D40">
-        <v>127.75</v>
+        <v>126.4945401156809</v>
       </c>
       <c r="E40">
-        <v>20.42175102233887</v>
+        <v>20.67409295144435</v>
       </c>
       <c r="F40">
-        <v>25.92935371398926</v>
+        <v>26.16717496869382</v>
       </c>
       <c r="G40">
-        <v>14.91383361816406</v>
+        <v>15.18061822334715</v>
       </c>
     </row>
     <row r="41">
@@ -1302,16 +1302,16 @@
         <v>6.93</v>
       </c>
       <c r="D41">
-        <v>127.75</v>
+        <v>126.5869300296366</v>
       </c>
       <c r="E41">
-        <v>20.42175102233887</v>
+        <v>20.6640018881259</v>
       </c>
       <c r="F41">
-        <v>25.92935371398926</v>
+        <v>26.15317111994099</v>
       </c>
       <c r="G41">
-        <v>14.91383361816406</v>
+        <v>15.17444067850627</v>
       </c>
     </row>
     <row r="42">
@@ -1325,16 +1325,16 @@
         <v>6.89</v>
       </c>
       <c r="D42">
-        <v>125.3333358764648</v>
+        <v>126.1967078528632</v>
       </c>
       <c r="E42">
-        <v>20.81510353088379</v>
+        <v>20.70944688760532</v>
       </c>
       <c r="F42">
-        <v>26.35224914550781</v>
+        <v>26.21371709942205</v>
       </c>
       <c r="G42">
-        <v>15.27733325958252</v>
+        <v>15.20476435341925</v>
       </c>
     </row>
     <row r="43">
@@ -1348,16 +1348,16 @@
         <v>5.61</v>
       </c>
       <c r="D43">
-        <v>127.75</v>
+        <v>126.4343067246416</v>
       </c>
       <c r="E43">
-        <v>20.42175102233887</v>
+        <v>20.66743815917919</v>
       </c>
       <c r="F43">
-        <v>25.92935371398926</v>
+        <v>26.17125942118991</v>
       </c>
       <c r="G43">
-        <v>14.91383361816406</v>
+        <v>15.16320396794127</v>
       </c>
     </row>
     <row r="44">
@@ -1371,16 +1371,16 @@
         <v>7.83</v>
       </c>
       <c r="D44">
-        <v>127.75</v>
+        <v>126.5424625538976</v>
       </c>
       <c r="E44">
-        <v>20.42175102233887</v>
+        <v>20.65563091740827</v>
       </c>
       <c r="F44">
-        <v>25.92935371398926</v>
+        <v>26.1547307977964</v>
       </c>
       <c r="G44">
-        <v>14.91383361816406</v>
+        <v>15.15612812334442</v>
       </c>
     </row>
     <row r="45">
@@ -1394,16 +1394,16 @@
         <v>6.28</v>
       </c>
       <c r="D45">
-        <v>127.75</v>
+        <v>126.6188451226847</v>
       </c>
       <c r="E45">
-        <v>20.42175102233887</v>
+        <v>20.6470278868971</v>
       </c>
       <c r="F45">
-        <v>25.92935371398926</v>
+        <v>26.14299762348913</v>
       </c>
       <c r="G45">
-        <v>14.91383361816406</v>
+        <v>15.1506592099072</v>
       </c>
     </row>
     <row r="46">
@@ -1417,16 +1417,16 @@
         <v>6.86</v>
       </c>
       <c r="D46">
-        <v>127.75</v>
+        <v>126.7084145651585</v>
       </c>
       <c r="E46">
-        <v>20.42175102233887</v>
+        <v>20.63702146913482</v>
       </c>
       <c r="F46">
-        <v>25.92935371398926</v>
+        <v>26.12931282945397</v>
       </c>
       <c r="G46">
-        <v>14.91383361816406</v>
+        <v>15.1443330968623</v>
       </c>
     </row>
     <row r="47">
@@ -1440,16 +1440,16 @@
         <v>4.57</v>
       </c>
       <c r="D47">
-        <v>125.3333358764648</v>
+        <v>126.3433458898636</v>
       </c>
       <c r="E47">
-        <v>20.81510353088379</v>
+        <v>20.67731654147537</v>
       </c>
       <c r="F47">
-        <v>26.35224914550781</v>
+        <v>26.18519869335073</v>
       </c>
       <c r="G47">
-        <v>15.27733325958252</v>
+        <v>15.1690090859817</v>
       </c>
     </row>
     <row r="48">
@@ -1463,16 +1463,16 @@
         <v>7</v>
       </c>
       <c r="D48">
-        <v>113</v>
+        <v>114.0655964044947</v>
       </c>
       <c r="E48">
-        <v>20.91550064086914</v>
+        <v>20.85407658387756</v>
       </c>
       <c r="F48">
-        <v>27.27908325195313</v>
+        <v>27.16926314286071</v>
       </c>
       <c r="G48">
-        <v>14.55162525177002</v>
+        <v>14.53819113683074</v>
       </c>
     </row>
     <row r="49">
@@ -1486,16 +1486,16 @@
         <v>5.96</v>
       </c>
       <c r="D49">
-        <v>122.4166641235352</v>
+        <v>122.9096685533925</v>
       </c>
       <c r="E49">
-        <v>19.49052047729492</v>
+        <v>19.33602764965219</v>
       </c>
       <c r="F49">
-        <v>25.47420883178711</v>
+        <v>25.29047596191665</v>
       </c>
       <c r="G49">
-        <v>13.50789546966553</v>
+        <v>13.38220903515365</v>
       </c>
     </row>
     <row r="50">
@@ -1509,16 +1509,16 @@
         <v>7.42</v>
       </c>
       <c r="D50">
-        <v>125</v>
+        <v>122.4737219044205</v>
       </c>
       <c r="E50">
-        <v>19.17385482788086</v>
+        <v>19.25888812624624</v>
       </c>
       <c r="F50">
-        <v>25.14152145385742</v>
+        <v>25.1833521420745</v>
       </c>
       <c r="G50">
-        <v>13.20683288574219</v>
+        <v>13.33465260301399</v>
       </c>
     </row>
     <row r="51">
@@ -1532,16 +1532,16 @@
         <v>7.94</v>
       </c>
       <c r="D51">
-        <v>115.4166641235352</v>
+        <v>114.9462427120946</v>
       </c>
       <c r="E51">
-        <v>20.10370826721191</v>
+        <v>20.05348918054332</v>
       </c>
       <c r="F51">
-        <v>25.70960426330566</v>
+        <v>25.65218157181228</v>
       </c>
       <c r="G51">
-        <v>14.49841690063477</v>
+        <v>14.45523339641509</v>
       </c>
     </row>
     <row r="52">
@@ -1555,16 +1555,16 @@
         <v>9.289999999999999</v>
       </c>
       <c r="D52">
-        <v>110.0833358764648</v>
+        <v>108.204411062684</v>
       </c>
       <c r="E52">
-        <v>21.01822853088379</v>
+        <v>21.46113958994516</v>
       </c>
       <c r="F52">
-        <v>27.23989486694336</v>
+        <v>27.65576210934448</v>
       </c>
       <c r="G52">
-        <v>14.7979793548584</v>
+        <v>15.26694300543942</v>
       </c>
     </row>
     <row r="53">
@@ -1578,16 +1578,16 @@
         <v>11.3</v>
       </c>
       <c r="D53">
-        <v>119.8333358764648</v>
+        <v>118.694001750123</v>
       </c>
       <c r="E53">
-        <v>21.09493637084961</v>
+        <v>21.11114667313376</v>
       </c>
       <c r="F53">
-        <v>27.50099945068359</v>
+        <v>27.51914789756918</v>
       </c>
       <c r="G53">
-        <v>14.68772888183594</v>
+        <v>14.70266812735223</v>
       </c>
     </row>
     <row r="54">
@@ -1601,16 +1601,16 @@
         <v>8.01</v>
       </c>
       <c r="D54">
-        <v>117.75</v>
+        <v>117.3856823528972</v>
       </c>
       <c r="E54">
-        <v>20.97116661071777</v>
+        <v>21.00892389907136</v>
       </c>
       <c r="F54">
-        <v>27.45222854614258</v>
+        <v>27.48125723411965</v>
       </c>
       <c r="G54">
-        <v>14.49252033233643</v>
+        <v>14.53876692222061</v>
       </c>
     </row>
     <row r="55">
@@ -1624,16 +1624,16 @@
         <v>4.35</v>
       </c>
       <c r="D55">
-        <v>129.5</v>
+        <v>128.7157151574696</v>
       </c>
       <c r="E55">
-        <v>19.18547821044922</v>
+        <v>19.16969234864764</v>
       </c>
       <c r="F55">
-        <v>25.01424980163574</v>
+        <v>24.99493307614543</v>
       </c>
       <c r="G55">
-        <v>13.35522937774658</v>
+        <v>13.3435368016114</v>
       </c>
     </row>
     <row r="56">
@@ -1647,16 +1647,16 @@
         <v>7.54</v>
       </c>
       <c r="D56">
-        <v>129.6666717529297</v>
+        <v>131.9416789026117</v>
       </c>
       <c r="E56">
-        <v>19.51127052307129</v>
+        <v>19.42270570059605</v>
       </c>
       <c r="F56">
-        <v>25.55641555786133</v>
+        <v>25.46501596499787</v>
       </c>
       <c r="G56">
-        <v>13.46639633178711</v>
+        <v>13.38031266813344</v>
       </c>
     </row>
     <row r="57">
@@ -1670,16 +1670,16 @@
         <v>7.59</v>
       </c>
       <c r="D57">
-        <v>123.4166641235352</v>
+        <v>124.0947465248595</v>
       </c>
       <c r="E57">
-        <v>17.14556312561035</v>
+        <v>17.1840714645874</v>
       </c>
       <c r="F57">
-        <v>22.90527153015137</v>
+        <v>22.93040234349213</v>
       </c>
       <c r="G57">
-        <v>11.385666847229</v>
+        <v>11.43738314818344</v>
       </c>
     </row>
     <row r="58">
@@ -1693,16 +1693,16 @@
         <v>7.72</v>
       </c>
       <c r="D58">
-        <v>116.9166641235352</v>
+        <v>117.7255938439139</v>
       </c>
       <c r="E58">
-        <v>19.54706192016602</v>
+        <v>19.47799254739135</v>
       </c>
       <c r="F58">
-        <v>24.05189514160156</v>
+        <v>23.94958652696779</v>
       </c>
       <c r="G58">
-        <v>15.04199981689453</v>
+        <v>15.00641536980453</v>
       </c>
     </row>
     <row r="59">
@@ -1716,16 +1716,16 @@
         <v>6.11</v>
       </c>
       <c r="D59">
-        <v>150.5833282470703</v>
+        <v>149.8196910531209</v>
       </c>
       <c r="E59">
-        <v>19.1868953704834</v>
+        <v>19.04285047610143</v>
       </c>
       <c r="F59">
-        <v>24.79258346557617</v>
+        <v>24.639224852879</v>
       </c>
       <c r="G59">
-        <v>13.58243751525879</v>
+        <v>13.44654307047152</v>
       </c>
     </row>
     <row r="60">
@@ -1739,16 +1739,16 @@
         <v>8.24</v>
       </c>
       <c r="D60">
-        <v>146.4166717529297</v>
+        <v>145.7487248157254</v>
       </c>
       <c r="E60">
-        <v>19.25033378601074</v>
+        <v>19.22641260183333</v>
       </c>
       <c r="F60">
-        <v>24.65479278564453</v>
+        <v>24.67297387357695</v>
       </c>
       <c r="G60">
-        <v>13.84629154205322</v>
+        <v>13.7795374560134</v>
       </c>
     </row>
     <row r="61">
@@ -1762,16 +1762,16 @@
         <v>6.51</v>
       </c>
       <c r="D61">
-        <v>119.1666641235352</v>
+        <v>120.5093922865451</v>
       </c>
       <c r="E61">
-        <v>18.99245834350586</v>
+        <v>18.75778351381498</v>
       </c>
       <c r="F61">
-        <v>24.49712562561035</v>
+        <v>24.22533524518548</v>
       </c>
       <c r="G61">
-        <v>13.49043750762939</v>
+        <v>13.29074572733539</v>
       </c>
     </row>
     <row r="62">
@@ -1785,16 +1785,16 @@
         <v>6.1</v>
       </c>
       <c r="D62">
-        <v>115.25</v>
+        <v>114.1440265049401</v>
       </c>
       <c r="E62">
-        <v>19.33045768737793</v>
+        <v>19.15409907819632</v>
       </c>
       <c r="F62">
-        <v>23.49239540100098</v>
+        <v>23.28770327963221</v>
       </c>
       <c r="G62">
-        <v>15.17012500762939</v>
+        <v>15.02142933804617</v>
       </c>
     </row>
     <row r="63">
@@ -1808,16 +1808,16 @@
         <v>8.09</v>
       </c>
       <c r="D63">
-        <v>146.8333282470703</v>
+        <v>147.0732069269266</v>
       </c>
       <c r="E63">
-        <v>17.58414649963379</v>
+        <v>17.56345318052487</v>
       </c>
       <c r="F63">
-        <v>22.96658325195313</v>
+        <v>22.9698207426266</v>
       </c>
       <c r="G63">
-        <v>12.20181274414063</v>
+        <v>12.15716855668868</v>
       </c>
     </row>
     <row r="64">
@@ -1831,16 +1831,16 @@
         <v>4.92</v>
       </c>
       <c r="D64">
-        <v>102.5833358764648</v>
+        <v>104.137479255623</v>
       </c>
       <c r="E64">
-        <v>23.38758277893066</v>
+        <v>23.32104042246819</v>
       </c>
       <c r="F64">
-        <v>29.13758277893066</v>
+        <v>29.19605046036912</v>
       </c>
       <c r="G64">
-        <v>17.63949966430664</v>
+        <v>17.44690729651069</v>
       </c>
     </row>
     <row r="65">
@@ -1854,16 +1854,16 @@
         <v>7.36</v>
       </c>
       <c r="D65">
-        <v>122.3333358764648</v>
+        <v>121.9609741448265</v>
       </c>
       <c r="E65">
-        <v>22.30827140808105</v>
+        <v>22.27266692165799</v>
       </c>
       <c r="F65">
-        <v>27.98977088928223</v>
+        <v>27.98426751254535</v>
       </c>
       <c r="G65">
-        <v>16.62633323669434</v>
+        <v>16.56128338709613</v>
       </c>
     </row>
     <row r="66">
@@ -1877,16 +1877,16 @@
         <v>6.34</v>
       </c>
       <c r="D66">
-        <v>138.4166717529297</v>
+        <v>138.0538814569308</v>
       </c>
       <c r="E66">
-        <v>25.53587532043457</v>
+        <v>25.56200328422075</v>
       </c>
       <c r="F66">
-        <v>32.58512496948242</v>
+        <v>32.52900508555575</v>
       </c>
       <c r="G66">
-        <v>18.486083984375</v>
+        <v>18.59484240250714</v>
       </c>
     </row>
     <row r="67">
@@ -1900,16 +1900,16 @@
         <v>5.6</v>
       </c>
       <c r="D67">
-        <v>129.5833282470703</v>
+        <v>129.584921321978</v>
       </c>
       <c r="E67">
-        <v>24.60329055786133</v>
+        <v>24.62301669451546</v>
       </c>
       <c r="F67">
-        <v>31.52606201171875</v>
+        <v>31.52330153311589</v>
       </c>
       <c r="G67">
-        <v>17.68233299255371</v>
+        <v>17.72376099043207</v>
       </c>
     </row>
     <row r="68">
@@ -1923,16 +1923,16 @@
         <v>6.26</v>
       </c>
       <c r="D68">
-        <v>130.5</v>
+        <v>130.8423870163062</v>
       </c>
       <c r="E68">
-        <v>24.80956268310547</v>
+        <v>24.53212415836266</v>
       </c>
       <c r="F68">
-        <v>31.74587440490723</v>
+        <v>31.38739996701607</v>
       </c>
       <c r="G68">
-        <v>17.87331199645996</v>
+        <v>17.67701951303076</v>
       </c>
     </row>
     <row r="69">
@@ -1946,16 +1946,16 @@
         <v>4.54</v>
       </c>
       <c r="D69">
-        <v>126.4166641235352</v>
+        <v>126.644068745423</v>
       </c>
       <c r="E69">
-        <v>22.13491630554199</v>
+        <v>22.17167492793496</v>
       </c>
       <c r="F69">
-        <v>28.4322509765625</v>
+        <v>28.47229642925654</v>
       </c>
       <c r="G69">
-        <v>15.83758354187012</v>
+        <v>15.87071962410732</v>
       </c>
     </row>
     <row r="70">
@@ -1969,16 +1969,16 @@
         <v>4.77</v>
       </c>
       <c r="D70">
-        <v>130.6666717529297</v>
+        <v>131.4864024079137</v>
       </c>
       <c r="E70">
-        <v>21.54235458374023</v>
+        <v>21.31020858245921</v>
       </c>
       <c r="F70">
-        <v>27.5130615234375</v>
+        <v>27.24469103769222</v>
       </c>
       <c r="G70">
-        <v>15.5722713470459</v>
+        <v>15.37613998044462</v>
       </c>
     </row>
     <row r="71">
@@ -1992,16 +1992,16 @@
         <v>5.8</v>
       </c>
       <c r="D71">
-        <v>78.75</v>
+        <v>86.32605251987114</v>
       </c>
       <c r="E71">
-        <v>24.16887474060059</v>
+        <v>24.31793234445604</v>
       </c>
       <c r="F71">
-        <v>28.32537460327148</v>
+        <v>28.41680992364991</v>
       </c>
       <c r="G71">
-        <v>20.01266670227051</v>
+        <v>20.21907679578082</v>
       </c>
     </row>
     <row r="72">
@@ -2015,16 +2015,16 @@
         <v>4.62</v>
       </c>
       <c r="D72">
-        <v>110.1666641235352</v>
+        <v>102.7623693698241</v>
       </c>
       <c r="E72">
-        <v>24.78327178955078</v>
+        <v>24.57036307493696</v>
       </c>
       <c r="F72">
-        <v>28.66385459899902</v>
+        <v>28.51206004026625</v>
       </c>
       <c r="G72">
-        <v>20.90187454223633</v>
+        <v>20.62868594372312</v>
       </c>
     </row>
     <row r="73">
@@ -2038,16 +2038,16 @@
         <v>9.460000000000001</v>
       </c>
       <c r="D73">
-        <v>67.08333587646484</v>
+        <v>64.38290204085519</v>
       </c>
       <c r="E73">
-        <v>24.1274585723877</v>
+        <v>24.20648566668321</v>
       </c>
       <c r="F73">
-        <v>28.47177124023438</v>
+        <v>28.54418166382981</v>
       </c>
       <c r="G73">
-        <v>19.78524971008301</v>
+        <v>19.86953333838044</v>
       </c>
     </row>
     <row r="74">
@@ -2061,16 +2061,16 @@
         <v>12.26</v>
       </c>
       <c r="D74">
-        <v>44.75</v>
+        <v>43.55171683447547</v>
       </c>
       <c r="E74">
-        <v>25.61916732788086</v>
+        <v>25.68540321583816</v>
       </c>
       <c r="F74">
-        <v>31.57824897766113</v>
+        <v>31.62398426712992</v>
       </c>
       <c r="G74">
-        <v>19.65964508056641</v>
+        <v>19.74709704256415</v>
       </c>
     </row>
     <row r="75">
@@ -2084,16 +2084,16 @@
         <v>14.24</v>
       </c>
       <c r="D75">
-        <v>60.66666793823242</v>
+        <v>61.55173248933131</v>
       </c>
       <c r="E75">
-        <v>22.80295753479004</v>
+        <v>22.98651453504533</v>
       </c>
       <c r="F75">
-        <v>28.35172843933105</v>
+        <v>28.53635805067037</v>
       </c>
       <c r="G75">
-        <v>17.25343704223633</v>
+        <v>17.43616453859971</v>
       </c>
     </row>
     <row r="76">
@@ -2107,16 +2107,16 @@
         <v>14.72</v>
       </c>
       <c r="D76">
-        <v>44.66666793823242</v>
+        <v>45.46803744711051</v>
       </c>
       <c r="E76">
-        <v>24.8997917175293</v>
+        <v>24.73350586499813</v>
       </c>
       <c r="F76">
-        <v>31.41950035095215</v>
+        <v>31.1832433414702</v>
       </c>
       <c r="G76">
-        <v>18.37941741943359</v>
+        <v>18.28348341803613</v>
       </c>
     </row>
     <row r="77">
@@ -2130,16 +2130,16 @@
         <v>4.06</v>
       </c>
       <c r="D77">
-        <v>102.5833358764648</v>
+        <v>101.3798480297065</v>
       </c>
       <c r="E77">
-        <v>24.77837562561035</v>
+        <v>24.90286255055242</v>
       </c>
       <c r="F77">
-        <v>30.88193702697754</v>
+        <v>30.98568735886933</v>
       </c>
       <c r="G77">
-        <v>18.67372894287109</v>
+        <v>18.81956981596128</v>
       </c>
     </row>
     <row r="78">
@@ -2153,16 +2153,16 @@
         <v>4.73</v>
       </c>
       <c r="D78">
-        <v>82.08333587646484</v>
+        <v>85.20409326914236</v>
       </c>
       <c r="E78">
-        <v>24.25062561035156</v>
+        <v>24.60347331334189</v>
       </c>
       <c r="F78">
-        <v>30.94124984741211</v>
+        <v>31.20483558414873</v>
       </c>
       <c r="G78">
-        <v>17.56156349182129</v>
+        <v>18.00250719449561</v>
       </c>
     </row>
     <row r="79">
@@ -2176,16 +2176,16 @@
         <v>4.08</v>
       </c>
       <c r="D79">
-        <v>91.66666412353516</v>
+        <v>92.55469040856561</v>
       </c>
       <c r="E79">
-        <v>23.31258392333984</v>
+        <v>23.31019982117818</v>
       </c>
       <c r="F79">
-        <v>30.6556453704834</v>
+        <v>30.61216292569959</v>
       </c>
       <c r="G79">
-        <v>15.9689998626709</v>
+        <v>16.00768005895144</v>
       </c>
     </row>
     <row r="80">
@@ -2199,16 +2199,16 @@
         <v>4.6</v>
       </c>
       <c r="D80">
-        <v>112.5</v>
+        <v>112.7111468386722</v>
       </c>
       <c r="E80">
-        <v>23.46674919128418</v>
+        <v>23.59515646469569</v>
       </c>
       <c r="F80">
-        <v>29.2194995880127</v>
+        <v>29.31491394541585</v>
       </c>
       <c r="G80">
-        <v>17.712646484375</v>
+        <v>17.87465540676724</v>
       </c>
     </row>
     <row r="81">
@@ -2222,16 +2222,16 @@
         <v>3.76</v>
       </c>
       <c r="D81">
-        <v>112.5</v>
+        <v>112.7574850299469</v>
       </c>
       <c r="E81">
-        <v>23.46674919128418</v>
+        <v>23.65420721175921</v>
       </c>
       <c r="F81">
-        <v>29.2194995880127</v>
+        <v>29.36437992041674</v>
       </c>
       <c r="G81">
-        <v>17.712646484375</v>
+        <v>17.94327132990672</v>
       </c>
     </row>
     <row r="82">
@@ -2245,16 +2245,16 @@
         <v>3.75</v>
       </c>
       <c r="D82">
-        <v>112.5</v>
+        <v>112.7001743555183</v>
       </c>
       <c r="E82">
-        <v>23.46674919128418</v>
+        <v>23.6077142510866</v>
       </c>
       <c r="F82">
-        <v>29.2194995880127</v>
+        <v>29.32800876285899</v>
       </c>
       <c r="G82">
-        <v>17.712646484375</v>
+        <v>17.88652452111766</v>
       </c>
     </row>
     <row r="83">
@@ -2268,16 +2268,16 @@
         <v>3.79</v>
       </c>
       <c r="D83">
-        <v>112.5</v>
+        <v>112.7480203569385</v>
       </c>
       <c r="E83">
-        <v>23.46674919128418</v>
+        <v>23.6663257524494</v>
       </c>
       <c r="F83">
-        <v>29.2194995880127</v>
+        <v>29.37698603990142</v>
       </c>
       <c r="G83">
-        <v>17.712646484375</v>
+        <v>17.95475449903187</v>
       </c>
     </row>
     <row r="84">
@@ -2291,16 +2291,16 @@
         <v>4.1</v>
       </c>
       <c r="D84">
-        <v>112.5</v>
+        <v>112.6691749714549</v>
       </c>
       <c r="E84">
-        <v>23.46674919128418</v>
+        <v>23.64742418926432</v>
       </c>
       <c r="F84">
-        <v>29.2194995880127</v>
+        <v>29.36895776215026</v>
       </c>
       <c r="G84">
-        <v>17.712646484375</v>
+        <v>17.9245422304281</v>
       </c>
     </row>
     <row r="85">
@@ -2314,16 +2314,16 @@
         <v>5.44</v>
       </c>
       <c r="D85">
-        <v>112.5</v>
+        <v>112.7170653118014</v>
       </c>
       <c r="E85">
-        <v>23.46674919128418</v>
+        <v>23.7008582079808</v>
       </c>
       <c r="F85">
-        <v>29.2194995880127</v>
+        <v>29.41339568401309</v>
       </c>
       <c r="G85">
-        <v>17.712646484375</v>
+        <v>17.98696083545412</v>
       </c>
     </row>
     <row r="86">
@@ -2337,16 +2337,16 @@
         <v>8.220000000000001</v>
       </c>
       <c r="D86">
-        <v>137.5833282470703</v>
+        <v>138.1909847965802</v>
       </c>
       <c r="E86">
-        <v>25.4633960723877</v>
+        <v>25.48055182191682</v>
       </c>
       <c r="F86">
-        <v>31.46893692016602</v>
+        <v>31.46731922965746</v>
       </c>
       <c r="G86">
-        <v>19.45812606811523</v>
+        <v>19.49422755382573</v>
       </c>
     </row>
     <row r="87">
@@ -2360,16 +2360,16 @@
         <v>4.38</v>
       </c>
       <c r="D87">
-        <v>137.5833282470703</v>
+        <v>138.1867063069013</v>
       </c>
       <c r="E87">
-        <v>25.4633960723877</v>
+        <v>25.47072961754364</v>
       </c>
       <c r="F87">
-        <v>31.46893692016602</v>
+        <v>31.44905397322481</v>
       </c>
       <c r="G87">
-        <v>19.45812606811523</v>
+        <v>19.49279496500721</v>
       </c>
     </row>
     <row r="88">
@@ -2383,16 +2383,16 @@
         <v>6.29</v>
       </c>
       <c r="D88">
-        <v>137.5833282470703</v>
+        <v>138.1752881161292</v>
       </c>
       <c r="E88">
-        <v>25.4633960723877</v>
+        <v>25.41507759152559</v>
       </c>
       <c r="F88">
-        <v>31.46893692016602</v>
+        <v>31.35685471942961</v>
       </c>
       <c r="G88">
-        <v>19.45812606811523</v>
+        <v>19.47345724712455</v>
       </c>
     </row>
     <row r="89">
@@ -2406,16 +2406,16 @@
         <v>3.09</v>
       </c>
       <c r="D89">
-        <v>137.5833282470703</v>
+        <v>138.0207010275703</v>
       </c>
       <c r="E89">
-        <v>25.4633960723877</v>
+        <v>25.4702107163611</v>
       </c>
       <c r="F89">
-        <v>31.46893692016602</v>
+        <v>31.46326181981562</v>
       </c>
       <c r="G89">
-        <v>19.45812606811523</v>
+        <v>19.47757480813766</v>
       </c>
     </row>
     <row r="90">
@@ -2429,16 +2429,16 @@
         <v>3.96</v>
       </c>
       <c r="D90">
-        <v>137.5833282470703</v>
+        <v>137.8039715658703</v>
       </c>
       <c r="E90">
-        <v>25.4633960723877</v>
+        <v>25.45261795616938</v>
       </c>
       <c r="F90">
-        <v>31.46893692016602</v>
+        <v>31.44877474854399</v>
       </c>
       <c r="G90">
-        <v>19.45812606811523</v>
+        <v>19.4568052360943</v>
       </c>
     </row>
     <row r="91">
@@ -2452,16 +2452,16 @@
         <v>2.53</v>
       </c>
       <c r="D91">
-        <v>138.3333282470703</v>
+        <v>138.3257335070889</v>
       </c>
       <c r="E91">
-        <v>25.18072891235352</v>
+        <v>25.3402793610856</v>
       </c>
       <c r="F91">
-        <v>31.02422904968262</v>
+        <v>31.14804166104059</v>
       </c>
       <c r="G91">
-        <v>19.33681297302246</v>
+        <v>19.53206657517863</v>
       </c>
     </row>
     <row r="92">
@@ -2475,16 +2475,16 @@
         <v>7.36</v>
       </c>
       <c r="D92">
-        <v>138.3333282470703</v>
+        <v>138.3203310523791</v>
       </c>
       <c r="E92">
-        <v>25.18072891235352</v>
+        <v>25.35641133345371</v>
       </c>
       <c r="F92">
-        <v>31.02422904968262</v>
+        <v>31.1605491566999</v>
       </c>
       <c r="G92">
-        <v>19.33681297302246</v>
+        <v>19.55181868924187</v>
       </c>
     </row>
     <row r="93">
@@ -2498,16 +2498,16 @@
         <v>5.08</v>
       </c>
       <c r="D93">
-        <v>138.3333282470703</v>
+        <v>138.4666488481446</v>
       </c>
       <c r="E93">
-        <v>25.18072891235352</v>
+        <v>25.36017504197694</v>
       </c>
       <c r="F93">
-        <v>31.02422904968262</v>
+        <v>31.23944590401307</v>
       </c>
       <c r="G93">
-        <v>19.33681297302246</v>
+        <v>19.48081678311463</v>
       </c>
     </row>
     <row r="94">
@@ -2521,16 +2521,16 @@
         <v>7.08</v>
       </c>
       <c r="D94">
-        <v>138.3333282470703</v>
+        <v>138.4632302015106</v>
       </c>
       <c r="E94">
-        <v>25.18072891235352</v>
+        <v>25.26857780310593</v>
       </c>
       <c r="F94">
-        <v>31.02422904968262</v>
+        <v>31.09125959853802</v>
       </c>
       <c r="G94">
-        <v>19.33681297302246</v>
+        <v>19.44548889616178</v>
       </c>
     </row>
     <row r="95">
@@ -2544,16 +2544,16 @@
         <v>6.42</v>
       </c>
       <c r="D95">
-        <v>138.3333282470703</v>
+        <v>138.2570975353955</v>
       </c>
       <c r="E95">
-        <v>25.18072891235352</v>
+        <v>25.40346180743376</v>
       </c>
       <c r="F95">
-        <v>31.02422904968262</v>
+        <v>31.19796121638457</v>
       </c>
       <c r="G95">
-        <v>19.33681297302246</v>
+        <v>19.60848370969542</v>
       </c>
     </row>
     <row r="96">
@@ -2567,16 +2567,16 @@
         <v>6.52</v>
       </c>
       <c r="D96">
-        <v>138.3333282470703</v>
+        <v>138.2469652082592</v>
       </c>
       <c r="E96">
-        <v>25.18072891235352</v>
+        <v>25.39923153481223</v>
       </c>
       <c r="F96">
-        <v>31.02422904968262</v>
+        <v>31.19491646022918</v>
       </c>
       <c r="G96">
-        <v>19.33681297302246</v>
+        <v>19.60306630555061</v>
       </c>
     </row>
     <row r="97">
@@ -2590,16 +2590,16 @@
         <v>8.99</v>
       </c>
       <c r="D97">
-        <v>138</v>
+        <v>138.2491766834365</v>
       </c>
       <c r="E97">
-        <v>25.73291778564453</v>
+        <v>25.60464876789482</v>
       </c>
       <c r="F97">
-        <v>31.45804214477539</v>
+        <v>31.35184753509148</v>
       </c>
       <c r="G97">
-        <v>20.00718688964844</v>
+        <v>19.85693374287291</v>
       </c>
     </row>
     <row r="98">
@@ -2613,16 +2613,16 @@
         <v>3.56</v>
       </c>
       <c r="D98">
-        <v>138.3333282470703</v>
+        <v>138.3497044627634</v>
       </c>
       <c r="E98">
-        <v>25.18072891235352</v>
+        <v>25.3562732869047</v>
       </c>
       <c r="F98">
-        <v>31.02422904968262</v>
+        <v>31.15994912670133</v>
       </c>
       <c r="G98">
-        <v>19.33681297302246</v>
+        <v>19.55214937881696</v>
       </c>
     </row>
     <row r="99">
@@ -2636,16 +2636,16 @@
         <v>8.99</v>
       </c>
       <c r="D99">
-        <v>138.3333282470703</v>
+        <v>138.4052027280687</v>
       </c>
       <c r="E99">
-        <v>25.18072891235352</v>
+        <v>25.3868806474777</v>
       </c>
       <c r="F99">
-        <v>31.02422904968262</v>
+        <v>31.18245133872221</v>
       </c>
       <c r="G99">
-        <v>19.33681297302246</v>
+        <v>19.59086904130468</v>
       </c>
     </row>
     <row r="100">
@@ -2659,16 +2659,16 @@
         <v>4.38</v>
       </c>
       <c r="D100">
-        <v>110.0833358764648</v>
+        <v>109.2805010938827</v>
       </c>
       <c r="E100">
-        <v>25.20454216003418</v>
+        <v>25.18313355024845</v>
       </c>
       <c r="F100">
-        <v>31.23491668701172</v>
+        <v>31.21217606260713</v>
       </c>
       <c r="G100">
-        <v>19.17395782470703</v>
+        <v>19.15399400922542</v>
       </c>
     </row>
     <row r="101">
@@ -2682,16 +2682,16 @@
         <v>4.35</v>
       </c>
       <c r="D101">
-        <v>110.0833358764648</v>
+        <v>109.2539833123271</v>
       </c>
       <c r="E101">
-        <v>25.20454216003418</v>
+        <v>25.18337952984994</v>
       </c>
       <c r="F101">
-        <v>31.23491668701172</v>
+        <v>31.21225434855358</v>
       </c>
       <c r="G101">
-        <v>19.17395782470703</v>
+        <v>19.15441522578277</v>
       </c>
     </row>
     <row r="102">
@@ -2705,16 +2705,16 @@
         <v>4.68</v>
       </c>
       <c r="D102">
-        <v>110.0833358764648</v>
+        <v>110.0565857978823</v>
       </c>
       <c r="E102">
-        <v>25.20454216003418</v>
+        <v>25.21723458362265</v>
       </c>
       <c r="F102">
-        <v>31.23491668701172</v>
+        <v>31.24321615435312</v>
       </c>
       <c r="G102">
-        <v>19.17395782470703</v>
+        <v>19.19110050649465</v>
       </c>
     </row>
     <row r="103">
@@ -2728,16 +2728,16 @@
         <v>3.22</v>
       </c>
       <c r="D103">
-        <v>110.0833358764648</v>
+        <v>110.7294352667239</v>
       </c>
       <c r="E103">
-        <v>25.20454216003418</v>
+        <v>25.26128497807662</v>
       </c>
       <c r="F103">
-        <v>31.23491668701172</v>
+        <v>31.26764700112812</v>
       </c>
       <c r="G103">
-        <v>19.17395782470703</v>
+        <v>19.25473567884682</v>
       </c>
     </row>
     <row r="104">
@@ -2751,16 +2751,16 @@
         <v>7.52</v>
       </c>
       <c r="D104">
-        <v>114.25</v>
+        <v>113.256901874101</v>
       </c>
       <c r="E104">
-        <v>25.38106155395508</v>
+        <v>25.30256854071225</v>
       </c>
       <c r="F104">
-        <v>31.32714653015137</v>
+        <v>31.27271991887041</v>
       </c>
       <c r="G104">
-        <v>19.43431282043457</v>
+        <v>19.33185375563082</v>
       </c>
     </row>
     <row r="105">
@@ -2774,16 +2774,16 @@
         <v>4.57</v>
       </c>
       <c r="D105">
-        <v>120.25</v>
+        <v>117.8640458359205</v>
       </c>
       <c r="E105">
-        <v>25.53477096557617</v>
+        <v>25.45638133131278</v>
       </c>
       <c r="F105">
-        <v>31.39522933959961</v>
+        <v>31.35815818735153</v>
       </c>
       <c r="G105">
-        <v>19.6743335723877</v>
+        <v>19.55436303027616</v>
       </c>
     </row>
     <row r="106">
@@ -2797,16 +2797,16 @@
         <v>3.43</v>
       </c>
       <c r="D106">
-        <v>120.25</v>
+        <v>120.9178953332581</v>
       </c>
       <c r="E106">
-        <v>25.53477096557617</v>
+        <v>25.54631672590733</v>
       </c>
       <c r="F106">
-        <v>31.39522933959961</v>
+        <v>31.40567882619315</v>
       </c>
       <c r="G106">
-        <v>19.6743335723877</v>
+        <v>19.6870766315901</v>
       </c>
     </row>
     <row r="107">
@@ -2820,16 +2820,16 @@
         <v>3.88</v>
       </c>
       <c r="D107">
-        <v>127.9166641235352</v>
+        <v>124.4947361924471</v>
       </c>
       <c r="E107">
-        <v>25.76043701171875</v>
+        <v>25.64992699529915</v>
       </c>
       <c r="F107">
-        <v>31.54204177856445</v>
+        <v>31.47225016238193</v>
       </c>
       <c r="G107">
-        <v>19.97956275939941</v>
+        <v>19.82801742237192</v>
       </c>
     </row>
     <row r="108">
@@ -2843,16 +2843,16 @@
         <v>4.59</v>
       </c>
       <c r="D108">
-        <v>138.3333282470703</v>
+        <v>135.3678870025705</v>
       </c>
       <c r="E108">
-        <v>25.18072891235352</v>
+        <v>25.28426573634248</v>
       </c>
       <c r="F108">
-        <v>31.02422904968262</v>
+        <v>31.21597067589412</v>
       </c>
       <c r="G108">
-        <v>19.33681297302246</v>
+        <v>19.35231044851596</v>
       </c>
     </row>
     <row r="109">
@@ -2866,16 +2866,16 @@
         <v>4.72</v>
       </c>
       <c r="D109">
-        <v>138.3333282470703</v>
+        <v>135.6261372970703</v>
       </c>
       <c r="E109">
-        <v>25.18072891235352</v>
+        <v>25.28373202720719</v>
       </c>
       <c r="F109">
-        <v>31.02422904968262</v>
+        <v>31.21214439065857</v>
       </c>
       <c r="G109">
-        <v>19.33681297302246</v>
+        <v>19.35507978771172</v>
       </c>
     </row>
     <row r="110">
@@ -2889,16 +2889,16 @@
         <v>4.65</v>
       </c>
       <c r="D110">
-        <v>138.3333282470703</v>
+        <v>136.3516122022704</v>
       </c>
       <c r="E110">
-        <v>25.18072891235352</v>
+        <v>25.28175401527007</v>
       </c>
       <c r="F110">
-        <v>31.02422904968262</v>
+        <v>31.20093680981783</v>
       </c>
       <c r="G110">
-        <v>19.33681297302246</v>
+        <v>19.36235527118028</v>
       </c>
     </row>
     <row r="111">
@@ -2912,16 +2912,16 @@
         <v>3.66</v>
       </c>
       <c r="D111">
-        <v>138.3333282470703</v>
+        <v>136.6960250638704</v>
       </c>
       <c r="E111">
-        <v>25.18072891235352</v>
+        <v>25.28027443338429</v>
       </c>
       <c r="F111">
-        <v>31.02422904968262</v>
+        <v>31.19488720499218</v>
       </c>
       <c r="G111">
-        <v>19.33681297302246</v>
+        <v>19.36545409100836</v>
       </c>
     </row>
     <row r="112">
@@ -2935,16 +2935,16 @@
         <v>3.66</v>
       </c>
       <c r="D112">
-        <v>138.3333282470703</v>
+        <v>138.1838149722578</v>
       </c>
       <c r="E112">
-        <v>25.18072891235352</v>
+        <v>25.34842163494605</v>
       </c>
       <c r="F112">
-        <v>31.02422904968262</v>
+        <v>31.25865193589371</v>
       </c>
       <c r="G112">
-        <v>19.33681297302246</v>
+        <v>19.43814851402339</v>
       </c>
     </row>
     <row r="113">
@@ -2958,16 +2958,16 @@
         <v>3.14</v>
       </c>
       <c r="D113">
-        <v>143.1666717529297</v>
+        <v>141.5441132551808</v>
       </c>
       <c r="E113">
-        <v>25.83035469055176</v>
+        <v>25.84675844463989</v>
       </c>
       <c r="F113">
-        <v>31.57745933532715</v>
+        <v>31.53692865491943</v>
       </c>
       <c r="G113">
-        <v>20.08212471008301</v>
+        <v>20.15559152499328</v>
       </c>
     </row>
     <row r="114">
@@ -2981,16 +2981,16 @@
         <v>4.78</v>
       </c>
       <c r="D114">
-        <v>144.6666717529297</v>
+        <v>144.052433090781</v>
       </c>
       <c r="E114">
-        <v>25.66143798828125</v>
+        <v>25.74241419456511</v>
       </c>
       <c r="F114">
-        <v>31.47210311889648</v>
+        <v>31.54445794776779</v>
       </c>
       <c r="G114">
-        <v>19.85223007202148</v>
+        <v>19.94034680153162</v>
       </c>
     </row>
     <row r="115">
@@ -3004,16 +3004,16 @@
         <v>2.09</v>
       </c>
       <c r="D115">
-        <v>145.9166717529297</v>
+        <v>147.0112161358584</v>
       </c>
       <c r="E115">
-        <v>25.67868804931641</v>
+        <v>25.53406374990189</v>
       </c>
       <c r="F115">
-        <v>31.5482292175293</v>
+        <v>31.41183865758607</v>
       </c>
       <c r="G115">
-        <v>19.81052017211914</v>
+        <v>19.65670399567155</v>
       </c>
     </row>
     <row r="116">
@@ -3027,16 +3027,16 @@
         <v>4.82</v>
       </c>
       <c r="D116">
-        <v>147.1666717529297</v>
+        <v>147.3166054535224</v>
       </c>
       <c r="E116">
-        <v>25.3922290802002</v>
+        <v>25.47329115578051</v>
       </c>
       <c r="F116">
-        <v>31.22483253479004</v>
+        <v>31.34175830089237</v>
       </c>
       <c r="G116">
-        <v>19.55931282043457</v>
+        <v>19.60487444552011</v>
       </c>
     </row>
     <row r="117">
@@ -3050,16 +3050,16 @@
         <v>2.75</v>
       </c>
       <c r="D117">
-        <v>149.4166717529297</v>
+        <v>148.9008795035308</v>
       </c>
       <c r="E117">
-        <v>25.46566581726074</v>
+        <v>25.45311284536653</v>
       </c>
       <c r="F117">
-        <v>31.35027122497559</v>
+        <v>31.32691587962867</v>
       </c>
       <c r="G117">
-        <v>19.5805835723877</v>
+        <v>19.5788852863732</v>
       </c>
     </row>
     <row r="118">
@@ -3073,16 +3073,16 @@
         <v>2.17</v>
       </c>
       <c r="D118">
-        <v>150.8333282470703</v>
+        <v>151.322448225742</v>
       </c>
       <c r="E118">
-        <v>25.73431205749512</v>
+        <v>25.515989579648</v>
       </c>
       <c r="F118">
-        <v>31.74810409545898</v>
+        <v>31.48821702215494</v>
       </c>
       <c r="G118">
-        <v>19.72074890136719</v>
+        <v>19.54439782300025</v>
       </c>
     </row>
     <row r="119">
@@ -3096,16 +3096,16 @@
         <v>4.75</v>
       </c>
       <c r="D119">
-        <v>148.0833282470703</v>
+        <v>146.9071302127194</v>
       </c>
       <c r="E119">
-        <v>24.76983451843262</v>
+        <v>25.04796208522057</v>
       </c>
       <c r="F119">
-        <v>30.67554092407227</v>
+        <v>30.94017677978739</v>
       </c>
       <c r="G119">
-        <v>18.86410522460938</v>
+        <v>19.1562157113712</v>
       </c>
     </row>
     <row r="120">
@@ -3119,16 +3119,16 @@
         <v>3.94</v>
       </c>
       <c r="D120">
-        <v>146.75</v>
+        <v>146.1479018766412</v>
       </c>
       <c r="E120">
-        <v>24.85447883605957</v>
+        <v>25.12672328341398</v>
       </c>
       <c r="F120">
-        <v>30.80060386657715</v>
+        <v>31.12162761902844</v>
       </c>
       <c r="G120">
-        <v>18.90656280517578</v>
+        <v>19.1309447037377</v>
       </c>
     </row>
     <row r="121">
@@ -3142,16 +3142,16 @@
         <v>4.91</v>
       </c>
       <c r="D121">
-        <v>140.5</v>
+        <v>140.3273609430013</v>
       </c>
       <c r="E121">
-        <v>25.06218719482422</v>
+        <v>25.15689676101665</v>
       </c>
       <c r="F121">
-        <v>31.03862571716309</v>
+        <v>31.14004904625622</v>
       </c>
       <c r="G121">
-        <v>19.08502006530762</v>
+        <v>19.17349617663955</v>
       </c>
     </row>
     <row r="122">
@@ -3165,16 +3165,16 @@
         <v>3</v>
       </c>
       <c r="D122">
-        <v>139.1666717529297</v>
+        <v>139.5553623155469</v>
       </c>
       <c r="E122">
-        <v>25.32539558410645</v>
+        <v>25.26903007558822</v>
       </c>
       <c r="F122">
-        <v>31.3136043548584</v>
+        <v>31.25411775385925</v>
       </c>
       <c r="G122">
-        <v>19.33685493469238</v>
+        <v>19.28362499592773</v>
       </c>
     </row>
     <row r="123">
@@ -3188,16 +3188,16 @@
         <v>5.61</v>
       </c>
       <c r="D123">
-        <v>137.75</v>
+        <v>138.0147731360876</v>
       </c>
       <c r="E123">
-        <v>25.08141708374023</v>
+        <v>25.0523469277454</v>
       </c>
       <c r="F123">
-        <v>30.95183372497559</v>
+        <v>30.96360822969543</v>
       </c>
       <c r="G123">
-        <v>19.2106876373291</v>
+        <v>19.1407503672765</v>
       </c>
     </row>
     <row r="124">
@@ -3211,16 +3211,16 @@
         <v>5.63</v>
       </c>
       <c r="D124">
-        <v>134.6666717529297</v>
+        <v>135.1305975715894</v>
       </c>
       <c r="E124">
-        <v>24.71547889709473</v>
+        <v>24.85406235285886</v>
       </c>
       <c r="F124">
-        <v>30.66062545776367</v>
+        <v>30.69962644312826</v>
       </c>
       <c r="G124">
-        <v>18.77058410644531</v>
+        <v>19.00806603098167</v>
       </c>
     </row>
     <row r="125">
@@ -3234,16 +3234,16 @@
         <v>6.06</v>
       </c>
       <c r="D125">
-        <v>133.5</v>
+        <v>134.0938179555137</v>
       </c>
       <c r="E125">
-        <v>24.99166679382324</v>
+        <v>24.97618821883374</v>
       </c>
       <c r="F125">
-        <v>30.98656272888184</v>
+        <v>30.91077970751831</v>
       </c>
       <c r="G125">
-        <v>18.99670791625977</v>
+        <v>19.04105205215796</v>
       </c>
     </row>
     <row r="126">
@@ -3257,16 +3257,16 @@
         <v>5.56</v>
       </c>
       <c r="D126">
-        <v>131.8333282470703</v>
+        <v>132.1447350779839</v>
       </c>
       <c r="E126">
-        <v>25.21122932434082</v>
+        <v>25.18414259355255</v>
       </c>
       <c r="F126">
-        <v>31.36981201171875</v>
+        <v>31.29584646941476</v>
       </c>
       <c r="G126">
-        <v>19.05520820617676</v>
+        <v>19.07332331274439</v>
       </c>
     </row>
     <row r="127">
@@ -3280,16 +3280,16 @@
         <v>5.38</v>
       </c>
       <c r="D127">
-        <v>122.5</v>
+        <v>121.8870804156646</v>
       </c>
       <c r="E127">
-        <v>24.82485389709473</v>
+        <v>24.81941353501928</v>
       </c>
       <c r="F127">
-        <v>30.51229095458984</v>
+        <v>30.54581062337104</v>
       </c>
       <c r="G127">
-        <v>19.13750076293945</v>
+        <v>19.09341631837686</v>
       </c>
     </row>
     <row r="128">
@@ -3303,16 +3303,16 @@
         <v>4.75</v>
       </c>
       <c r="D128">
-        <v>122.3333358764648</v>
+        <v>123.1752307757204</v>
       </c>
       <c r="E128">
-        <v>25.14610481262207</v>
+        <v>25.03360670378633</v>
       </c>
       <c r="F128">
-        <v>30.86662483215332</v>
+        <v>30.71844293974893</v>
       </c>
       <c r="G128">
-        <v>19.42668724060059</v>
+        <v>19.34955455624016</v>
       </c>
     </row>
     <row r="129">
@@ -3326,16 +3326,16 @@
         <v>6.73</v>
       </c>
       <c r="D129">
-        <v>128.5833282470703</v>
+        <v>127.0117742476422</v>
       </c>
       <c r="E129">
-        <v>21.21741676330566</v>
+        <v>21.62380463608305</v>
       </c>
       <c r="F129">
-        <v>26.82208251953125</v>
+        <v>27.20308156567092</v>
       </c>
       <c r="G129">
-        <v>15.61291694641113</v>
+        <v>16.04476813785152</v>
       </c>
     </row>
     <row r="130">
@@ -3349,16 +3349,16 @@
         <v>4.66</v>
       </c>
       <c r="D130">
-        <v>138.3333282470703</v>
+        <v>138.2559636391532</v>
       </c>
       <c r="E130">
-        <v>25.18072891235352</v>
+        <v>25.38802540204672</v>
       </c>
       <c r="F130">
-        <v>31.02422904968262</v>
+        <v>31.18609745654253</v>
       </c>
       <c r="G130">
-        <v>19.33681297302246</v>
+        <v>19.58947736742764</v>
       </c>
     </row>
     <row r="131">
@@ -3372,16 +3372,16 @@
         <v>6.75</v>
       </c>
       <c r="D131">
-        <v>133.4166717529297</v>
+        <v>133.783031227802</v>
       </c>
       <c r="E131">
-        <v>21.48835372924805</v>
+        <v>21.55240908035681</v>
       </c>
       <c r="F131">
-        <v>27.7808952331543</v>
+        <v>27.82407354209552</v>
       </c>
       <c r="G131">
-        <v>15.19779205322266</v>
+        <v>15.28102954425393</v>
       </c>
     </row>
     <row r="132">
@@ -3395,16 +3395,16 @@
         <v>6.49</v>
       </c>
       <c r="D132">
-        <v>134.25</v>
+        <v>134.0774488978356</v>
       </c>
       <c r="E132">
-        <v>21.44793701171875</v>
+        <v>21.45743894737467</v>
       </c>
       <c r="F132">
-        <v>27.73335456848145</v>
+        <v>27.74419309124215</v>
       </c>
       <c r="G132">
-        <v>15.16112518310547</v>
+        <v>15.16998694683615</v>
       </c>
     </row>
     <row r="133">
@@ -3418,16 +3418,16 @@
         <v>6.08</v>
       </c>
       <c r="D133">
-        <v>133.5</v>
+        <v>134.0128038075948</v>
       </c>
       <c r="E133">
-        <v>21.51018714904785</v>
+        <v>21.45517971365124</v>
       </c>
       <c r="F133">
-        <v>27.79791641235352</v>
+        <v>27.75676325634967</v>
       </c>
       <c r="G133">
-        <v>15.22249984741211</v>
+        <v>15.15355879662347</v>
       </c>
     </row>
     <row r="134">
@@ -3441,16 +3441,16 @@
         <v>6.32</v>
       </c>
       <c r="D134">
-        <v>134.8333282470703</v>
+        <v>134.5079256194389</v>
       </c>
       <c r="E134">
-        <v>21.37727165222168</v>
+        <v>21.4106565297853</v>
       </c>
       <c r="F134">
-        <v>27.71158218383789</v>
+        <v>27.72945547690113</v>
       </c>
       <c r="G134">
-        <v>15.04229164123535</v>
+        <v>15.09126376444857</v>
       </c>
     </row>
     <row r="135">
@@ -3464,16 +3464,16 @@
         <v>6.56</v>
       </c>
       <c r="D135">
-        <v>134.25</v>
+        <v>134.4794787984535</v>
       </c>
       <c r="E135">
-        <v>21.44793701171875</v>
+        <v>21.419156346653</v>
       </c>
       <c r="F135">
-        <v>27.73335456848145</v>
+        <v>27.72531634497125</v>
       </c>
       <c r="G135">
-        <v>15.16112518310547</v>
+        <v>15.1119612541555</v>
       </c>
     </row>
     <row r="136">
@@ -3487,16 +3487,16 @@
         <v>7.98</v>
       </c>
       <c r="D136">
-        <v>134.25</v>
+        <v>134.4526222601349</v>
       </c>
       <c r="E136">
-        <v>21.44793701171875</v>
+        <v>21.46116424118286</v>
       </c>
       <c r="F136">
-        <v>27.73335456848145</v>
+        <v>27.75048698584508</v>
       </c>
       <c r="G136">
-        <v>15.16112518310547</v>
+        <v>15.17089543258424</v>
       </c>
     </row>
     <row r="137">
@@ -3510,16 +3510,16 @@
         <v>6.48</v>
       </c>
       <c r="D137">
-        <v>133.4166717529297</v>
+        <v>133.13614361712</v>
       </c>
       <c r="E137">
-        <v>21.48835372924805</v>
+        <v>21.51869888691626</v>
       </c>
       <c r="F137">
-        <v>27.7808952331543</v>
+        <v>27.79085189453301</v>
       </c>
       <c r="G137">
-        <v>15.19779205322266</v>
+        <v>15.24767922597373</v>
       </c>
     </row>
     <row r="138">
@@ -3533,16 +3533,16 @@
         <v>6.46</v>
       </c>
       <c r="D138">
-        <v>135.1666717529297</v>
+        <v>134.7913966680148</v>
       </c>
       <c r="E138">
-        <v>21.5555419921875</v>
+        <v>21.51913350268274</v>
       </c>
       <c r="F138">
-        <v>27.83193778991699</v>
+        <v>27.81837726383132</v>
       </c>
       <c r="G138">
-        <v>15.28002071380615</v>
+        <v>15.21989093562869</v>
       </c>
     </row>
     <row r="139">
@@ -3556,16 +3556,16 @@
         <v>5.86</v>
       </c>
       <c r="D139">
-        <v>135.1666717529297</v>
+        <v>135.1317149040715</v>
       </c>
       <c r="E139">
-        <v>21.5555419921875</v>
+        <v>21.58242223035035</v>
       </c>
       <c r="F139">
-        <v>27.83193778991699</v>
+        <v>27.86650177058024</v>
       </c>
       <c r="G139">
-        <v>15.28002071380615</v>
+        <v>15.29917239325715</v>
       </c>
     </row>
     <row r="140">
@@ -3579,16 +3579,16 @@
         <v>4.9</v>
       </c>
       <c r="D140">
-        <v>136.0833282470703</v>
+        <v>136.0981632473123</v>
       </c>
       <c r="E140">
-        <v>21.72193717956543</v>
+        <v>21.78803237557597</v>
       </c>
       <c r="F140">
-        <v>27.99039649963379</v>
+        <v>28.08712856213733</v>
       </c>
       <c r="G140">
-        <v>15.45324993133545</v>
+        <v>15.48863358391488</v>
       </c>
     </row>
     <row r="141">
@@ -3602,16 +3602,16 @@
         <v>4.27</v>
       </c>
       <c r="D141">
-        <v>136.3333282470703</v>
+        <v>136.2847342175293</v>
       </c>
       <c r="E141">
-        <v>22.11527061462402</v>
+        <v>22.0656306536446</v>
       </c>
       <c r="F141">
-        <v>28.25456237792969</v>
+        <v>28.20414429271626</v>
       </c>
       <c r="G141">
-        <v>15.97668743133545</v>
+        <v>15.92765987849707</v>
       </c>
     </row>
     <row r="142">
@@ -3625,16 +3625,16 @@
         <v>6.59</v>
       </c>
       <c r="D142">
-        <v>136.9166717529297</v>
+        <v>136.6493041019681</v>
       </c>
       <c r="E142">
-        <v>21.7729377746582</v>
+        <v>21.86236264062671</v>
       </c>
       <c r="F142">
-        <v>27.91504096984863</v>
+        <v>27.99953844444066</v>
       </c>
       <c r="G142">
-        <v>15.63022899627686</v>
+        <v>15.7245533590018</v>
       </c>
     </row>
     <row r="143">
@@ -3648,16 +3648,16 @@
         <v>7.19</v>
       </c>
       <c r="D143">
-        <v>133.5833282470703</v>
+        <v>133.3909196843188</v>
       </c>
       <c r="E143">
-        <v>21.57831192016602</v>
+        <v>21.56017051760683</v>
       </c>
       <c r="F143">
-        <v>27.81789588928223</v>
+        <v>27.80770927138218</v>
       </c>
       <c r="G143">
-        <v>15.33958339691162</v>
+        <v>15.31286962569108</v>
       </c>
     </row>
     <row r="144">
@@ -3671,16 +3671,16 @@
         <v>7.45</v>
       </c>
       <c r="D144">
-        <v>135.5</v>
+        <v>135.7753502564743</v>
       </c>
       <c r="E144">
-        <v>22.35664558410645</v>
+        <v>22.25218057528863</v>
       </c>
       <c r="F144">
-        <v>28.41402053833008</v>
+        <v>28.3246034400693</v>
       </c>
       <c r="G144">
-        <v>16.29893684387207</v>
+        <v>16.17922986483597</v>
       </c>
     </row>
     <row r="145">
@@ -3694,16 +3694,16 @@
         <v>2.63</v>
       </c>
       <c r="D145">
-        <v>136.4166717529297</v>
+        <v>137.0499865702985</v>
       </c>
       <c r="E145">
-        <v>22.06210327148438</v>
+        <v>21.95176170010642</v>
       </c>
       <c r="F145">
-        <v>28.05856323242188</v>
+        <v>27.96056164111136</v>
       </c>
       <c r="G145">
-        <v>16.06402015686035</v>
+        <v>15.94176192504644</v>
       </c>
     </row>
     <row r="146">
@@ -3717,16 +3717,16 @@
         <v>5.83</v>
       </c>
       <c r="D146">
-        <v>139</v>
+        <v>138.2261617461368</v>
       </c>
       <c r="E146">
-        <v>21.79454231262207</v>
+        <v>22.02324975602009</v>
       </c>
       <c r="F146">
-        <v>27.7293529510498</v>
+        <v>27.94078373622949</v>
       </c>
       <c r="G146">
-        <v>15.86020851135254</v>
+        <v>16.10620792931653</v>
       </c>
     </row>
     <row r="147">
@@ -3740,16 +3740,16 @@
         <v>7.45</v>
       </c>
       <c r="D147">
-        <v>138.25</v>
+        <v>138.1183790820107</v>
       </c>
       <c r="E147">
-        <v>22.82910346984863</v>
+        <v>22.81527184037755</v>
       </c>
       <c r="F147">
-        <v>28.71793746948242</v>
+        <v>28.7187300899577</v>
       </c>
       <c r="G147">
-        <v>16.93954086303711</v>
+        <v>16.91118170334249</v>
       </c>
     </row>
     <row r="148">
@@ -3763,16 +3763,16 @@
         <v>5.13</v>
       </c>
       <c r="D148">
-        <v>136.5833282470703</v>
+        <v>136.2166488063309</v>
       </c>
       <c r="E148">
-        <v>23.66162490844727</v>
+        <v>23.63178356349754</v>
       </c>
       <c r="F148">
-        <v>29.64575004577637</v>
+        <v>29.61275723596736</v>
       </c>
       <c r="G148">
-        <v>17.67818832397461</v>
+        <v>17.65196813720123</v>
       </c>
     </row>
     <row r="149">
@@ -3786,16 +3786,16 @@
         <v>5.71</v>
       </c>
       <c r="D149">
-        <v>135.4166717529297</v>
+        <v>136.0923319012452</v>
       </c>
       <c r="E149">
-        <v>23.80429077148438</v>
+        <v>23.71020211292981</v>
       </c>
       <c r="F149">
-        <v>29.62993812561035</v>
+        <v>29.47630307501521</v>
       </c>
       <c r="G149">
-        <v>17.97910499572754</v>
+        <v>17.94366842558422</v>
       </c>
     </row>
     <row r="150">
@@ -3809,16 +3809,16 @@
         <v>6.31</v>
       </c>
       <c r="D150">
-        <v>133.4166717529297</v>
+        <v>133.3109968056565</v>
       </c>
       <c r="E150">
-        <v>21.48835372924805</v>
+        <v>21.53397486700761</v>
       </c>
       <c r="F150">
-        <v>27.7808952331543</v>
+        <v>27.79344095951456</v>
       </c>
       <c r="G150">
-        <v>15.19779205322266</v>
+        <v>15.27538868869452</v>
       </c>
     </row>
     <row r="151">
@@ -3832,16 +3832,16 @@
         <v>5.37</v>
       </c>
       <c r="D151">
-        <v>133.4166717529297</v>
+        <v>133.5345949557326</v>
       </c>
       <c r="E151">
-        <v>21.48835372924805</v>
+        <v>21.51058622446755</v>
       </c>
       <c r="F151">
-        <v>27.7808952331543</v>
+        <v>27.7909904305757</v>
       </c>
       <c r="G151">
-        <v>15.19779205322266</v>
+        <v>15.2315792861525</v>
       </c>
     </row>
     <row r="152">
@@ -3855,16 +3855,16 @@
         <v>5.7</v>
       </c>
       <c r="D152">
-        <v>108.25</v>
+        <v>108.2738770417688</v>
       </c>
       <c r="E152">
-        <v>25.44935417175293</v>
+        <v>25.4562991826002</v>
       </c>
       <c r="F152">
-        <v>31.05756187438965</v>
+        <v>31.06674016462829</v>
       </c>
       <c r="G152">
-        <v>19.83908271789551</v>
+        <v>19.84388688750013</v>
       </c>
     </row>
     <row r="153">
@@ -3878,16 +3878,16 @@
         <v>5.7</v>
       </c>
       <c r="D153">
-        <v>245.6666717529297</v>
+        <v>245.7754889250101</v>
       </c>
       <c r="E153">
-        <v>26.61902046203613</v>
+        <v>26.61342682686824</v>
       </c>
       <c r="F153">
-        <v>30.50737571716309</v>
+        <v>30.51685655753149</v>
       </c>
       <c r="G153">
-        <v>22.72547912597656</v>
+        <v>22.7070435775336</v>
       </c>
     </row>
     <row r="154">
@@ -3901,16 +3901,16 @@
         <v>5.6</v>
       </c>
       <c r="D154">
-        <v>245.6666717529297</v>
+        <v>245.7700840872625</v>
       </c>
       <c r="E154">
-        <v>26.61902046203613</v>
+        <v>26.61357265414575</v>
       </c>
       <c r="F154">
-        <v>30.50737571716309</v>
+        <v>30.51620703203096</v>
       </c>
       <c r="G154">
-        <v>22.72547912597656</v>
+        <v>22.70786986857844</v>
       </c>
     </row>
     <row r="155">
@@ -3924,16 +3924,16 @@
         <v>8.699999999999999</v>
       </c>
       <c r="D155">
-        <v>184.75</v>
+        <v>184.8523489672851</v>
       </c>
       <c r="E155">
-        <v>26.60304069519043</v>
+        <v>26.61906611097412</v>
       </c>
       <c r="F155">
-        <v>31.94916725158691</v>
+        <v>32.00316249448851</v>
       </c>
       <c r="G155">
-        <v>21.25714492797852</v>
+        <v>21.23508815301819</v>
       </c>
     </row>
     <row r="156">
@@ -3947,16 +3947,16 @@
         <v>7.4</v>
       </c>
       <c r="D156">
-        <v>184.75</v>
+        <v>184.7832783648268</v>
       </c>
       <c r="E156">
-        <v>26.60304069519043</v>
+        <v>26.60205031296348</v>
       </c>
       <c r="F156">
-        <v>31.94916725158691</v>
+        <v>31.95151253613099</v>
       </c>
       <c r="G156">
-        <v>21.25714492797852</v>
+        <v>21.25284750492594</v>
       </c>
     </row>
     <row r="157">
@@ -3970,16 +3970,16 @@
         <v>6.1</v>
       </c>
       <c r="D157">
-        <v>222.5833282470703</v>
+        <v>221.3430100329766</v>
       </c>
       <c r="E157">
-        <v>26.16658401489258</v>
+        <v>26.18994418939749</v>
       </c>
       <c r="F157">
-        <v>31.10704231262207</v>
+        <v>31.12160351498892</v>
       </c>
       <c r="G157">
-        <v>21.22733306884766</v>
+        <v>21.25857674650026</v>
       </c>
     </row>
     <row r="158">
@@ -3993,16 +3993,16 @@
         <v>3.9</v>
       </c>
       <c r="D158">
-        <v>222.5833282470703</v>
+        <v>221.1449552065754</v>
       </c>
       <c r="E158">
-        <v>26.16658401489258</v>
+        <v>26.19286894832871</v>
       </c>
       <c r="F158">
-        <v>31.10704231262207</v>
+        <v>31.12341663758804</v>
       </c>
       <c r="G158">
-        <v>21.22733306884766</v>
+        <v>21.26249226757896</v>
       </c>
     </row>
     <row r="159">
@@ -4016,16 +4016,16 @@
         <v>6.3</v>
       </c>
       <c r="D159">
-        <v>222.5833282470703</v>
+        <v>221.1981702389784</v>
       </c>
       <c r="E159">
-        <v>26.16658401489258</v>
+        <v>26.19250385673028</v>
       </c>
       <c r="F159">
-        <v>31.10704231262207</v>
+        <v>31.12319960495941</v>
       </c>
       <c r="G159">
-        <v>21.22733306884766</v>
+        <v>21.26202047200725</v>
       </c>
     </row>
     <row r="160">
@@ -4039,16 +4039,16 @@
         <v>4.2</v>
       </c>
       <c r="D160">
-        <v>222.5833282470703</v>
+        <v>221.1570897647685</v>
       </c>
       <c r="E160">
-        <v>26.16658401489258</v>
+        <v>26.19048537052613</v>
       </c>
       <c r="F160">
-        <v>31.10704231262207</v>
+        <v>31.12188813249014</v>
       </c>
       <c r="G160">
-        <v>21.22733306884766</v>
+        <v>21.25919637538218</v>
       </c>
     </row>
     <row r="161">
@@ -4062,16 +4062,16 @@
         <v>9.300000000000001</v>
       </c>
       <c r="D161">
-        <v>196.9166717529297</v>
+        <v>195.9254622709931</v>
       </c>
       <c r="E161">
-        <v>26.39945793151855</v>
+        <v>26.46571246584969</v>
       </c>
       <c r="F161">
-        <v>30.42783355712891</v>
+        <v>30.4945288449112</v>
       </c>
       <c r="G161">
-        <v>22.37270927429199</v>
+        <v>22.43776923482666</v>
       </c>
     </row>
     <row r="162">
@@ -4085,16 +4085,16 @@
         <v>6.3</v>
       </c>
       <c r="D162">
-        <v>280.6666564941406</v>
+        <v>283.0921284217281</v>
       </c>
       <c r="E162">
-        <v>25.01433372497559</v>
+        <v>24.96160319239159</v>
       </c>
       <c r="F162">
-        <v>29.73441696166992</v>
+        <v>29.6677714368128</v>
       </c>
       <c r="G162">
-        <v>20.29260444641113</v>
+        <v>20.25430282480705</v>
       </c>
     </row>
     <row r="163">
@@ -4108,16 +4108,16 @@
         <v>6.5</v>
       </c>
       <c r="D163">
-        <v>280.6666564941406</v>
+        <v>282.6306801913357</v>
       </c>
       <c r="E163">
-        <v>25.01433372497559</v>
+        <v>24.97148413989148</v>
       </c>
       <c r="F163">
-        <v>29.73441696166992</v>
+        <v>29.67832761202845</v>
       </c>
       <c r="G163">
-        <v>20.29260444641113</v>
+        <v>20.26340771972022</v>
       </c>
     </row>
     <row r="164">
@@ -4131,16 +4131,16 @@
         <v>9.199999999999999</v>
       </c>
       <c r="D164">
-        <v>179.5</v>
+        <v>181.9878587533057</v>
       </c>
       <c r="E164">
-        <v>26.20481300354004</v>
+        <v>26.15911333894903</v>
       </c>
       <c r="F164">
-        <v>30.90362548828125</v>
+        <v>30.87351840664741</v>
       </c>
       <c r="G164">
-        <v>21.51008415222168</v>
+        <v>21.44744748047477</v>
       </c>
     </row>
     <row r="165">
@@ -4154,16 +4154,16 @@
         <v>10.6</v>
       </c>
       <c r="D165">
-        <v>179.5</v>
+        <v>182.0087872242209</v>
       </c>
       <c r="E165">
-        <v>26.20481300354004</v>
+        <v>26.15931906867115</v>
       </c>
       <c r="F165">
-        <v>30.90362548828125</v>
+        <v>30.87376457196836</v>
       </c>
       <c r="G165">
-        <v>21.51008415222168</v>
+        <v>21.4476085825366</v>
       </c>
     </row>
     <row r="166">
@@ -4177,16 +4177,16 @@
         <v>10.3</v>
       </c>
       <c r="D166">
-        <v>179.5</v>
+        <v>182.9174891073925</v>
       </c>
       <c r="E166">
-        <v>26.20481300354004</v>
+        <v>26.15246994339107</v>
       </c>
       <c r="F166">
-        <v>30.90362548828125</v>
+        <v>30.87106778417235</v>
       </c>
       <c r="G166">
-        <v>21.51008415222168</v>
+        <v>21.43623642820311</v>
       </c>
     </row>
     <row r="167">
@@ -4200,16 +4200,16 @@
         <v>6.2</v>
       </c>
       <c r="D167">
-        <v>123</v>
+        <v>122.8176661920167</v>
       </c>
       <c r="E167">
-        <v>25.56516647338867</v>
+        <v>25.55549347652633</v>
       </c>
       <c r="F167">
-        <v>31.25966644287109</v>
+        <v>31.25470933376945</v>
       </c>
       <c r="G167">
-        <v>19.8675422668457</v>
+        <v>19.85594572068787</v>
       </c>
     </row>
     <row r="168">
@@ -4223,16 +4223,16 @@
         <v>8.5</v>
       </c>
       <c r="D168">
-        <v>175.6666717529297</v>
+        <v>177.1545610005157</v>
       </c>
       <c r="E168">
-        <v>26.0499382019043</v>
+        <v>26.08546848326372</v>
       </c>
       <c r="F168">
-        <v>30.6068115234375</v>
+        <v>30.65778643106571</v>
       </c>
       <c r="G168">
-        <v>21.49322891235352</v>
+        <v>21.51208781306431</v>
       </c>
     </row>
     <row r="169">
@@ -4246,16 +4246,16 @@
         <v>4.8</v>
       </c>
       <c r="D169">
-        <v>163.1666717529297</v>
+        <v>167.4180401299026</v>
       </c>
       <c r="E169">
-        <v>25.29329109191895</v>
+        <v>25.31107563025314</v>
       </c>
       <c r="F169">
-        <v>30.51670837402344</v>
+        <v>30.52796085185583</v>
       </c>
       <c r="G169">
-        <v>20.07851982116699</v>
+        <v>20.09896689560249</v>
       </c>
     </row>
     <row r="170">
@@ -4269,16 +4269,16 @@
         <v>8.5</v>
       </c>
       <c r="D170">
-        <v>141.4166717529297</v>
+        <v>142.3414847615411</v>
       </c>
       <c r="E170">
-        <v>25.29447937011719</v>
+        <v>25.24549027961962</v>
       </c>
       <c r="F170">
-        <v>30.43066596984863</v>
+        <v>30.39574887066382</v>
       </c>
       <c r="G170">
-        <v>20.15754127502441</v>
+        <v>20.09423051101989</v>
       </c>
     </row>
     <row r="171">
@@ -4292,16 +4292,16 @@
         <v>7.8</v>
       </c>
       <c r="D171">
-        <v>141.4166717529297</v>
+        <v>142.0710677183013</v>
       </c>
       <c r="E171">
-        <v>25.29447937011719</v>
+        <v>25.23437404912301</v>
       </c>
       <c r="F171">
-        <v>30.43066596984863</v>
+        <v>30.38026427941976</v>
       </c>
       <c r="G171">
-        <v>20.15754127502441</v>
+        <v>20.08755636801431</v>
       </c>
     </row>
     <row r="172">
@@ -4315,16 +4315,16 @@
         <v>6.8</v>
       </c>
       <c r="D172">
-        <v>173.5</v>
+        <v>172.130601620748</v>
       </c>
       <c r="E172">
-        <v>24.97122955322266</v>
+        <v>25.01734865132993</v>
       </c>
       <c r="F172">
-        <v>29.81389617919922</v>
+        <v>29.8653935953609</v>
       </c>
       <c r="G172">
-        <v>20.12849998474121</v>
+        <v>20.16928224521196</v>
       </c>
     </row>
     <row r="173">
@@ -4338,16 +4338,16 @@
         <v>5.1</v>
       </c>
       <c r="D173">
-        <v>131.75</v>
+        <v>130.9110869421846</v>
       </c>
       <c r="E173">
-        <v>25.33189582824707</v>
+        <v>25.41982905344001</v>
       </c>
       <c r="F173">
-        <v>32.05662536621094</v>
+        <v>32.17266506659488</v>
       </c>
       <c r="G173">
-        <v>18.6063117980957</v>
+        <v>18.66701392548263</v>
       </c>
     </row>
     <row r="174">
@@ -4361,16 +4361,16 @@
         <v>5.7</v>
       </c>
       <c r="D174">
-        <v>127.5833358764648</v>
+        <v>128.2814666333256</v>
       </c>
       <c r="E174">
-        <v>24.22158432006836</v>
+        <v>24.12308606098684</v>
       </c>
       <c r="F174">
-        <v>30.27768707275391</v>
+        <v>30.19252915273729</v>
       </c>
       <c r="G174">
-        <v>18.16468811035156</v>
+        <v>18.05320046017176</v>
       </c>
     </row>
     <row r="175">
@@ -4384,16 +4384,16 @@
         <v>6.7</v>
       </c>
       <c r="D175">
-        <v>127.5833358764648</v>
+        <v>128.0967189274522</v>
       </c>
       <c r="E175">
-        <v>24.22158432006836</v>
+        <v>24.14668752354544</v>
       </c>
       <c r="F175">
-        <v>30.27768707275391</v>
+        <v>30.21267419900511</v>
       </c>
       <c r="G175">
-        <v>18.16468811035156</v>
+        <v>18.08015895624693</v>
       </c>
     </row>
     <row r="176">
@@ -4407,16 +4407,16 @@
         <v>7.3</v>
       </c>
       <c r="D176">
-        <v>355.0833435058594</v>
+        <v>354.1897577096557</v>
       </c>
       <c r="E176">
-        <v>23.8133544921875</v>
+        <v>23.56832851053729</v>
       </c>
       <c r="F176">
-        <v>28.54358291625977</v>
+        <v>28.3019959712435</v>
       </c>
       <c r="G176">
-        <v>19.08349990844727</v>
+        <v>18.83507982774267</v>
       </c>
     </row>
     <row r="177">
@@ -4430,16 +4430,16 @@
         <v>6.9</v>
       </c>
       <c r="D177">
-        <v>355.0833435058594</v>
+        <v>354.8822682057188</v>
       </c>
       <c r="E177">
-        <v>23.8133544921875</v>
+        <v>23.67701201717374</v>
       </c>
       <c r="F177">
-        <v>28.54358291625977</v>
+        <v>28.41211148614881</v>
       </c>
       <c r="G177">
-        <v>19.08349990844727</v>
+        <v>18.94231468350408</v>
       </c>
     </row>
     <row r="178">
@@ -4453,16 +4453,16 @@
         <v>6.6</v>
       </c>
       <c r="D178">
-        <v>355.0833435058594</v>
+        <v>354.5853952072168</v>
       </c>
       <c r="E178">
-        <v>23.8133544921875</v>
+        <v>23.62898308234087</v>
       </c>
       <c r="F178">
-        <v>28.54358291625977</v>
+        <v>28.363488337897</v>
       </c>
       <c r="G178">
-        <v>19.08349990844727</v>
+        <v>18.8948869429539</v>
       </c>
     </row>
     <row r="179">
@@ -4476,16 +4476,16 @@
         <v>7</v>
       </c>
       <c r="D179">
-        <v>355.0833435058594</v>
+        <v>353.7029808217724</v>
       </c>
       <c r="E179">
-        <v>23.8133544921875</v>
+        <v>23.48660131744481</v>
       </c>
       <c r="F179">
-        <v>28.54358291625977</v>
+        <v>28.22014068958186</v>
       </c>
       <c r="G179">
-        <v>19.08349990844727</v>
+        <v>18.75349909989794</v>
       </c>
     </row>
     <row r="180">
@@ -4499,16 +4499,16 @@
         <v>8.300000000000001</v>
       </c>
       <c r="D180">
-        <v>199.1666717529297</v>
+        <v>201.482443159289</v>
       </c>
       <c r="E180">
-        <v>26.01441764831543</v>
+        <v>26.11431134925655</v>
       </c>
       <c r="F180">
-        <v>30.54379272460938</v>
+        <v>30.65611957811543</v>
       </c>
       <c r="G180">
-        <v>21.48664474487305</v>
+        <v>21.5734630101273</v>
       </c>
     </row>
     <row r="181">
@@ -4522,16 +4522,16 @@
         <v>5.3</v>
       </c>
       <c r="D181">
-        <v>148.25</v>
+        <v>149.4952375588384</v>
       </c>
       <c r="E181">
-        <v>25.38233375549316</v>
+        <v>25.36656830809687</v>
       </c>
       <c r="F181">
-        <v>30.59412574768066</v>
+        <v>30.5675705150007</v>
       </c>
       <c r="G181">
-        <v>20.17008399963379</v>
+        <v>20.16576721379944</v>
       </c>
     </row>
     <row r="182">
@@ -4545,16 +4545,16 @@
         <v>5.3</v>
       </c>
       <c r="D182">
-        <v>122.6666641235352</v>
+        <v>122.983810655769</v>
       </c>
       <c r="E182">
-        <v>25.55293846130371</v>
+        <v>25.53419492724578</v>
       </c>
       <c r="F182">
-        <v>31.34983444213867</v>
+        <v>31.32104900321399</v>
       </c>
       <c r="G182">
-        <v>19.75558280944824</v>
+        <v>19.74685348274906</v>
       </c>
     </row>
     <row r="183">
@@ -4568,16 +4568,16 @@
         <v>6.2</v>
       </c>
       <c r="D183">
-        <v>127.5833358764648</v>
+        <v>125.3204575593028</v>
       </c>
       <c r="E183">
-        <v>24.22158432006836</v>
+        <v>24.85947678712919</v>
       </c>
       <c r="F183">
-        <v>30.27768707275391</v>
+        <v>30.78985915851376</v>
       </c>
       <c r="G183">
-        <v>18.16468811035156</v>
+        <v>18.92852045704375</v>
       </c>
     </row>
     <row r="184">
@@ -4591,16 +4591,16 @@
         <v>6.2</v>
       </c>
       <c r="D184">
-        <v>244.0833282470703</v>
+        <v>246.1858940043575</v>
       </c>
       <c r="E184">
-        <v>26.60670852661133</v>
+        <v>26.61337652838418</v>
       </c>
       <c r="F184">
-        <v>30.5398120880127</v>
+        <v>30.55370039991079</v>
       </c>
       <c r="G184">
-        <v>22.67210388183594</v>
+        <v>22.67307118848787</v>
       </c>
     </row>
     <row r="185">
@@ -4614,16 +4614,16 @@
         <v>6.7</v>
       </c>
       <c r="D185">
-        <v>244.0833282470703</v>
+        <v>246.1842039351642</v>
       </c>
       <c r="E185">
-        <v>26.60670852661133</v>
+        <v>26.61412352182529</v>
       </c>
       <c r="F185">
-        <v>30.5398120880127</v>
+        <v>30.55399337190784</v>
       </c>
       <c r="G185">
-        <v>22.67210388183594</v>
+        <v>22.67431111291361</v>
       </c>
     </row>
     <row r="186">
@@ -4637,16 +4637,16 @@
         <v>7.1</v>
       </c>
       <c r="D186">
-        <v>123</v>
+        <v>122.4787665365601</v>
       </c>
       <c r="E186">
-        <v>25.56516647338867</v>
+        <v>25.56780880126429</v>
       </c>
       <c r="F186">
-        <v>31.25966644287109</v>
+        <v>31.25950011292174</v>
       </c>
       <c r="G186">
-        <v>19.8675422668457</v>
+        <v>19.87572547375504</v>
       </c>
     </row>
     <row r="187">
@@ -4660,16 +4660,16 @@
         <v>5.3</v>
       </c>
       <c r="D187">
-        <v>123</v>
+        <v>122.4989065386963</v>
       </c>
       <c r="E187">
-        <v>25.56516647338867</v>
+        <v>25.56764392799361</v>
       </c>
       <c r="F187">
-        <v>31.25966644287109</v>
+        <v>31.25949348416275</v>
       </c>
       <c r="G187">
-        <v>19.8675422668457</v>
+        <v>19.87531128453286</v>
       </c>
     </row>
     <row r="188">
@@ -4683,16 +4683,16 @@
         <v>4.8</v>
       </c>
       <c r="D188">
-        <v>196.25</v>
+        <v>195.9717690006987</v>
       </c>
       <c r="E188">
-        <v>26.51772880554199</v>
+        <v>26.49482353192336</v>
       </c>
       <c r="F188">
-        <v>30.54404067993164</v>
+        <v>30.52137097324823</v>
       </c>
       <c r="G188">
-        <v>22.49247932434082</v>
+        <v>22.46931444043944</v>
       </c>
     </row>
     <row r="189">
@@ -4706,16 +4706,16 @@
         <v>7.8</v>
       </c>
       <c r="D189">
-        <v>196.25</v>
+        <v>195.9497108060093</v>
       </c>
       <c r="E189">
-        <v>26.51772880554199</v>
+        <v>26.49605084322667</v>
       </c>
       <c r="F189">
-        <v>30.54404067993164</v>
+        <v>30.52253613388222</v>
       </c>
       <c r="G189">
-        <v>22.49247932434082</v>
+        <v>22.47059750101443</v>
       </c>
     </row>
     <row r="190">
@@ -4729,16 +4729,16 @@
         <v>5.8</v>
       </c>
       <c r="D190">
-        <v>196.25</v>
+        <v>196.0218623391675</v>
       </c>
       <c r="E190">
-        <v>26.51772880554199</v>
+        <v>26.49148145353942</v>
       </c>
       <c r="F190">
-        <v>30.54404067993164</v>
+        <v>30.51818504188148</v>
       </c>
       <c r="G190">
-        <v>22.49247932434082</v>
+        <v>22.46583153794278</v>
       </c>
     </row>
     <row r="191">
@@ -4752,16 +4752,16 @@
         <v>7.7</v>
       </c>
       <c r="D191">
-        <v>228.5833282470703</v>
+        <v>224.8033306884764</v>
       </c>
       <c r="E191">
-        <v>26.5152702331543</v>
+        <v>26.45226867675781</v>
       </c>
       <c r="F191">
-        <v>30.34643745422363</v>
+        <v>30.24485260009764</v>
       </c>
       <c r="G191">
-        <v>22.68572998046875</v>
+        <v>22.6609669494629</v>
       </c>
     </row>
     <row r="192">
@@ -4775,16 +4775,16 @@
         <v>9</v>
       </c>
       <c r="D192">
-        <v>93.5</v>
+        <v>93.75218843049402</v>
       </c>
       <c r="E192">
-        <v>24.81722831726074</v>
+        <v>24.83908217319757</v>
       </c>
       <c r="F192">
-        <v>30.37602043151855</v>
+        <v>30.4028026877381</v>
       </c>
       <c r="G192">
-        <v>19.25874900817871</v>
+        <v>19.27559900526321</v>
       </c>
     </row>
     <row r="193">
@@ -4798,16 +4798,16 @@
         <v>6.3</v>
       </c>
       <c r="D193">
-        <v>133.0833282470703</v>
+        <v>134.0009622993897</v>
       </c>
       <c r="E193">
-        <v>25.17024993896484</v>
+        <v>25.15730160145693</v>
       </c>
       <c r="F193">
-        <v>29.77248001098633</v>
+        <v>29.67125456478339</v>
       </c>
       <c r="G193">
-        <v>20.56887435913086</v>
+        <v>20.64364805045881</v>
       </c>
     </row>
     <row r="194">
@@ -4821,16 +4821,16 @@
         <v>7.4</v>
       </c>
       <c r="D194">
-        <v>148</v>
+        <v>148.8269493347096</v>
       </c>
       <c r="E194">
-        <v>25.06893730163574</v>
+        <v>25.05927723968087</v>
       </c>
       <c r="F194">
-        <v>30.30043792724609</v>
+        <v>30.27902628116653</v>
       </c>
       <c r="G194">
-        <v>19.8364372253418</v>
+        <v>19.8390859371652</v>
       </c>
     </row>
     <row r="195">
@@ -4844,16 +4844,16 @@
         <v>3.1</v>
       </c>
       <c r="D195">
-        <v>284.75</v>
+        <v>284.2279933928876</v>
       </c>
       <c r="E195">
-        <v>26.26293754577637</v>
+        <v>26.30224892484482</v>
       </c>
       <c r="F195">
-        <v>32.63906097412109</v>
+        <v>32.6546972269707</v>
       </c>
       <c r="G195">
-        <v>19.88733291625977</v>
+        <v>19.95063749087255</v>
       </c>
     </row>
     <row r="196">
@@ -4867,16 +4867,16 @@
         <v>2.4</v>
       </c>
       <c r="D196">
-        <v>284.75</v>
+        <v>284.402683816504</v>
       </c>
       <c r="E196">
-        <v>26.26293754577637</v>
+        <v>26.29239549326782</v>
       </c>
       <c r="F196">
-        <v>32.63906097412109</v>
+        <v>32.65051764379883</v>
       </c>
       <c r="G196">
-        <v>19.88733291625977</v>
+        <v>19.93500407345581</v>
       </c>
     </row>
     <row r="197">
@@ -4890,16 +4890,16 @@
         <v>8.800000000000001</v>
       </c>
       <c r="D197">
-        <v>154.6666717529297</v>
+        <v>154.3130345905933</v>
       </c>
       <c r="E197">
-        <v>25.10179138183594</v>
+        <v>25.19248118695588</v>
       </c>
       <c r="F197">
-        <v>31.50322914123535</v>
+        <v>31.62116957969483</v>
       </c>
       <c r="G197">
-        <v>18.7005615234375</v>
+        <v>18.76440970418793</v>
       </c>
     </row>
     <row r="198">
@@ -4913,16 +4913,16 @@
         <v>7.9</v>
       </c>
       <c r="D198">
-        <v>262.5</v>
+        <v>262.5703276302098</v>
       </c>
       <c r="E198">
-        <v>26.28464508056641</v>
+        <v>26.27685087127496</v>
       </c>
       <c r="F198">
-        <v>30.95993804931641</v>
+        <v>30.94946669011938</v>
       </c>
       <c r="G198">
-        <v>21.61137390136719</v>
+        <v>21.60608520319455</v>
       </c>
     </row>
     <row r="199">
@@ -4936,16 +4936,16 @@
         <v>8</v>
       </c>
       <c r="D199">
-        <v>262.5</v>
+        <v>262.6513330789315</v>
       </c>
       <c r="E199">
-        <v>26.28464508056641</v>
+        <v>26.27412525374681</v>
       </c>
       <c r="F199">
-        <v>30.95993804931641</v>
+        <v>30.94546090794003</v>
       </c>
       <c r="G199">
-        <v>21.61137390136719</v>
+        <v>21.60458340310489</v>
       </c>
     </row>
     <row r="200">
@@ -4959,16 +4959,16 @@
         <v>6.9</v>
       </c>
       <c r="D200">
-        <v>210</v>
+        <v>208.7714213352984</v>
       </c>
       <c r="E200">
-        <v>25.15818786621094</v>
+        <v>25.19078427293988</v>
       </c>
       <c r="F200">
-        <v>30.29814529418945</v>
+        <v>30.34787822547572</v>
       </c>
       <c r="G200">
-        <v>20.01739501953125</v>
+        <v>20.03260015530814</v>
       </c>
     </row>
     <row r="201">
@@ -4982,16 +4982,16 @@
         <v>7</v>
       </c>
       <c r="D201">
-        <v>210</v>
+        <v>207.7542388811773</v>
       </c>
       <c r="E201">
-        <v>25.15818786621094</v>
+        <v>25.19631184359558</v>
       </c>
       <c r="F201">
-        <v>30.29814529418945</v>
+        <v>30.35795100731247</v>
       </c>
       <c r="G201">
-        <v>20.01739501953125</v>
+        <v>20.03341650632843</v>
       </c>
     </row>
     <row r="202">
@@ -5005,16 +5005,16 @@
         <v>7.1</v>
       </c>
       <c r="D202">
-        <v>210</v>
+        <v>206.9699241243225</v>
       </c>
       <c r="E202">
-        <v>25.15818786621094</v>
+        <v>25.19789991634136</v>
       </c>
       <c r="F202">
-        <v>30.29814529418945</v>
+        <v>30.360182074566</v>
       </c>
       <c r="G202">
-        <v>20.01739501953125</v>
+        <v>20.03417363876694</v>
       </c>
     </row>
     <row r="203">
@@ -5028,16 +5028,16 @@
         <v>7.2</v>
       </c>
       <c r="D203">
-        <v>196.75</v>
+        <v>205.5605403858021</v>
       </c>
       <c r="E203">
-        <v>25.2594165802002</v>
+        <v>25.20380397895116</v>
       </c>
       <c r="F203">
-        <v>30.45629119873047</v>
+        <v>30.36991999559491</v>
       </c>
       <c r="G203">
-        <v>20.05887413024902</v>
+        <v>20.03595135739883</v>
       </c>
     </row>
     <row r="204">
@@ -5051,16 +5051,16 @@
         <v>5.8</v>
       </c>
       <c r="D204">
-        <v>210</v>
+        <v>209.2271463135283</v>
       </c>
       <c r="E204">
-        <v>25.15818786621094</v>
+        <v>25.1912650751928</v>
       </c>
       <c r="F204">
-        <v>30.29814529418945</v>
+        <v>30.34943650375515</v>
       </c>
       <c r="G204">
-        <v>20.01739501953125</v>
+        <v>20.03214213871887</v>
       </c>
     </row>
     <row r="205">
@@ -5074,16 +5074,16 @@
         <v>6.7</v>
       </c>
       <c r="D205">
-        <v>196.75</v>
+        <v>204.0706044349618</v>
       </c>
       <c r="E205">
-        <v>25.2594165802002</v>
+        <v>25.20964495834867</v>
       </c>
       <c r="F205">
-        <v>30.45629119873047</v>
+        <v>30.37901465542704</v>
       </c>
       <c r="G205">
-        <v>20.05887413024902</v>
+        <v>20.03820584249456</v>
       </c>
     </row>
     <row r="206">
@@ -5097,16 +5097,16 @@
         <v>5.1</v>
       </c>
       <c r="D206">
-        <v>132.5</v>
+        <v>132.1891999219536</v>
       </c>
       <c r="E206">
-        <v>25.01145935058594</v>
+        <v>25.00473402568636</v>
       </c>
       <c r="F206">
-        <v>31.97331237792969</v>
+        <v>31.94197263456611</v>
       </c>
       <c r="G206">
-        <v>18.0482292175293</v>
+        <v>18.06690788695508</v>
       </c>
     </row>
     <row r="207">
@@ -5120,16 +5120,16 @@
         <v>10.5</v>
       </c>
       <c r="D207">
-        <v>155.8333282470703</v>
+        <v>156.0539687009965</v>
       </c>
       <c r="E207">
-        <v>25.69966697692871</v>
+        <v>25.82400994648764</v>
       </c>
       <c r="F207">
-        <v>29.88252067565918</v>
+        <v>29.94912252870699</v>
       </c>
       <c r="G207">
-        <v>21.51595878601074</v>
+        <v>21.69837282557544</v>
       </c>
     </row>
     <row r="208">
@@ -5143,16 +5143,16 @@
         <v>10.4</v>
       </c>
       <c r="D208">
-        <v>152.9166717529297</v>
+        <v>153.1943563387651</v>
       </c>
       <c r="E208">
-        <v>25.72274971008301</v>
+        <v>25.7441027229109</v>
       </c>
       <c r="F208">
-        <v>30.05341720581055</v>
+        <v>30.08265626851893</v>
       </c>
       <c r="G208">
-        <v>21.39093780517578</v>
+        <v>21.40536621505426</v>
       </c>
     </row>
     <row r="209">
@@ -5166,16 +5166,16 @@
         <v>6.6</v>
       </c>
       <c r="D209">
-        <v>264.8333435058594</v>
+        <v>267.9893601950264</v>
       </c>
       <c r="E209">
-        <v>25.24356269836426</v>
+        <v>25.18661844606335</v>
       </c>
       <c r="F209">
-        <v>29.93908309936523</v>
+        <v>29.89471827710165</v>
       </c>
       <c r="G209">
-        <v>20.55039596557617</v>
+        <v>20.47925656596159</v>
       </c>
     </row>
     <row r="210">
@@ -5189,16 +5189,16 @@
         <v>7.3</v>
       </c>
       <c r="D210">
-        <v>264.8333435058594</v>
+        <v>267.4701613505654</v>
       </c>
       <c r="E210">
-        <v>25.24356269836426</v>
+        <v>25.19371082825976</v>
       </c>
       <c r="F210">
-        <v>29.93908309936523</v>
+        <v>29.90128044726729</v>
       </c>
       <c r="G210">
-        <v>20.55039596557617</v>
+        <v>20.4869155412576</v>
       </c>
     </row>
     <row r="211">
@@ -5212,16 +5212,16 @@
         <v>11</v>
       </c>
       <c r="D211">
-        <v>70.33333587646484</v>
+        <v>70.94460111163669</v>
       </c>
       <c r="E211">
-        <v>25.61095809936523</v>
+        <v>25.71105194599894</v>
       </c>
       <c r="F211">
-        <v>31.64035415649414</v>
+        <v>31.71771536729672</v>
       </c>
       <c r="G211">
-        <v>19.58043670654297</v>
+        <v>19.70332545047792</v>
       </c>
     </row>
     <row r="212">
@@ -5235,16 +5235,16 @@
         <v>6.7</v>
       </c>
       <c r="D212">
-        <v>128.9166717529297</v>
+        <v>129.5095932438351</v>
       </c>
       <c r="E212">
-        <v>24.92679214477539</v>
+        <v>24.86794583834113</v>
       </c>
       <c r="F212">
-        <v>31.70070838928223</v>
+        <v>31.69095251233081</v>
       </c>
       <c r="G212">
-        <v>18.15168762207031</v>
+        <v>18.0447834304254</v>
       </c>
     </row>
     <row r="213">
@@ -5258,16 +5258,16 @@
         <v>5.8</v>
       </c>
       <c r="D213">
-        <v>129.75</v>
+        <v>129.5746189309102</v>
       </c>
       <c r="E213">
-        <v>24.82072830200195</v>
+        <v>24.86242667601118</v>
       </c>
       <c r="F213">
-        <v>31.74399948120117</v>
+        <v>31.69606956490686</v>
       </c>
       <c r="G213">
-        <v>17.89835357666016</v>
+        <v>18.02869458252487</v>
       </c>
     </row>
     <row r="214">
@@ -5281,16 +5281,16 @@
         <v>5.5</v>
       </c>
       <c r="D214">
-        <v>257.8333435058594</v>
+        <v>258.0689061436557</v>
       </c>
       <c r="E214">
-        <v>26.23125076293945</v>
+        <v>26.22788008294964</v>
       </c>
       <c r="F214">
-        <v>30.92289543151855</v>
+        <v>30.89206725422597</v>
       </c>
       <c r="G214">
-        <v>21.54014587402344</v>
+        <v>21.56428278492099</v>
       </c>
     </row>
     <row r="215">
@@ -5304,16 +5304,16 @@
         <v>10.25</v>
       </c>
       <c r="D215">
-        <v>163.0833282470703</v>
+        <v>161.9056617187502</v>
       </c>
       <c r="E215">
-        <v>25.98560333251953</v>
+        <v>25.88527087860107</v>
       </c>
       <c r="F215">
-        <v>29.9927921295166</v>
+        <v>29.95228386535644</v>
       </c>
       <c r="G215">
-        <v>21.97241592407227</v>
+        <v>21.81447603759766</v>
       </c>
     </row>
     <row r="216">
@@ -5327,16 +5327,16 @@
         <v>11.1</v>
       </c>
       <c r="D216">
-        <v>167.8333282470703</v>
+        <v>168.6937339352692</v>
       </c>
       <c r="E216">
-        <v>24.9637508392334</v>
+        <v>24.99393524865341</v>
       </c>
       <c r="F216">
-        <v>31.11220741271973</v>
+        <v>31.09412664741516</v>
       </c>
       <c r="G216">
-        <v>18.81520843505859</v>
+        <v>18.8932235883236</v>
       </c>
     </row>
     <row r="217">
@@ -5350,16 +5350,16 @@
         <v>8.4</v>
       </c>
       <c r="D217">
-        <v>116.5</v>
+        <v>117.2998626666924</v>
       </c>
       <c r="E217">
-        <v>17.57577133178711</v>
+        <v>17.90388790637408</v>
       </c>
       <c r="F217">
-        <v>22.51449966430664</v>
+        <v>22.79919161488077</v>
       </c>
       <c r="G217">
-        <v>12.63647937774658</v>
+        <v>13.00821682746411</v>
       </c>
     </row>
     <row r="218">
@@ -5373,16 +5373,16 @@
         <v>8.15</v>
       </c>
       <c r="D218">
-        <v>98</v>
+        <v>98.58169464128105</v>
       </c>
       <c r="E218">
-        <v>22.01104164123535</v>
+        <v>22.02453629405212</v>
       </c>
       <c r="F218">
-        <v>27.80141639709473</v>
+        <v>27.87491188119887</v>
       </c>
       <c r="G218">
-        <v>16.22214508056641</v>
+        <v>16.1754463764534</v>
       </c>
     </row>
     <row r="219">
@@ -5396,16 +5396,16 @@
         <v>6.02</v>
       </c>
       <c r="D219">
-        <v>111.9166641235352</v>
+        <v>112.8441598377099</v>
       </c>
       <c r="E219">
-        <v>24.6324577331543</v>
+        <v>24.81613069414004</v>
       </c>
       <c r="F219">
-        <v>30.72293853759766</v>
+        <v>30.91763055849083</v>
       </c>
       <c r="G219">
-        <v>18.54227066040039</v>
+        <v>18.71541145457627</v>
       </c>
     </row>
     <row r="220">
@@ -5419,16 +5419,16 @@
         <v>6.46</v>
       </c>
       <c r="D220">
-        <v>111.9166641235352</v>
+        <v>112.8142831589849</v>
       </c>
       <c r="E220">
-        <v>24.6324577331543</v>
+        <v>24.82636717866642</v>
       </c>
       <c r="F220">
-        <v>30.72293853759766</v>
+        <v>30.92766777685306</v>
       </c>
       <c r="G220">
-        <v>18.54227066040039</v>
+        <v>18.72592213006342</v>
       </c>
     </row>
     <row r="221">
@@ -5442,16 +5442,16 @@
         <v>5.95</v>
       </c>
       <c r="D221">
-        <v>112.5833358764648</v>
+        <v>112.8513569719253</v>
       </c>
       <c r="E221">
-        <v>25.01362419128418</v>
+        <v>24.88186205805616</v>
       </c>
       <c r="F221">
-        <v>31.13631248474121</v>
+        <v>30.98371605929943</v>
       </c>
       <c r="G221">
-        <v>18.89333343505859</v>
+        <v>18.78114746246142</v>
       </c>
     </row>
     <row r="222">
@@ -5465,16 +5465,16 @@
         <v>9.57</v>
       </c>
       <c r="D222">
-        <v>112.5833358764648</v>
+        <v>112.4014804924694</v>
       </c>
       <c r="E222">
-        <v>25.01362419128418</v>
+        <v>24.8535924052897</v>
       </c>
       <c r="F222">
-        <v>31.13631248474121</v>
+        <v>30.96062309356362</v>
       </c>
       <c r="G222">
-        <v>18.89333343505859</v>
+        <v>18.74796785653492</v>
       </c>
     </row>
     <row r="223">
@@ -5488,16 +5488,16 @@
         <v>6.73</v>
       </c>
       <c r="D223">
-        <v>111.25</v>
+        <v>111.4819837805728</v>
       </c>
       <c r="E223">
-        <v>25.18900108337402</v>
+        <v>25.153112995347</v>
       </c>
       <c r="F223">
-        <v>31.30154228210449</v>
+        <v>31.25653891176245</v>
       </c>
       <c r="G223">
-        <v>19.07485389709473</v>
+        <v>19.04845426749706</v>
       </c>
     </row>
     <row r="224">
@@ -5511,16 +5511,16 @@
         <v>7.03</v>
       </c>
       <c r="D224">
-        <v>111.25</v>
+        <v>111.1438711764248</v>
       </c>
       <c r="E224">
-        <v>25.18900108337402</v>
+        <v>25.20551659255127</v>
       </c>
       <c r="F224">
-        <v>31.30154228210449</v>
+        <v>31.31240142341846</v>
       </c>
       <c r="G224">
-        <v>19.07485389709473</v>
+        <v>19.09822124073852</v>
       </c>
     </row>
     <row r="225">
@@ -5534,16 +5534,16 @@
         <v>5.01</v>
       </c>
       <c r="D225">
-        <v>111.0833358764648</v>
+        <v>110.6528083313294</v>
       </c>
       <c r="E225">
-        <v>25.33827018737793</v>
+        <v>25.30783824577961</v>
       </c>
       <c r="F225">
-        <v>31.26389503479004</v>
+        <v>31.19154767215358</v>
       </c>
       <c r="G225">
-        <v>19.41004180908203</v>
+        <v>19.42301538258381</v>
       </c>
     </row>
     <row r="226">
@@ -5557,16 +5557,16 @@
         <v>6.78</v>
       </c>
       <c r="D226">
-        <v>111</v>
+        <v>110.6655501920169</v>
       </c>
       <c r="E226">
-        <v>25.33620834350586</v>
+        <v>25.34297368646334</v>
       </c>
       <c r="F226">
-        <v>31.40114593505859</v>
+        <v>31.35349376551422</v>
       </c>
       <c r="G226">
-        <v>19.27727127075195</v>
+        <v>19.33481608988696</v>
       </c>
     </row>
     <row r="227">
@@ -5580,16 +5580,16 @@
         <v>6.33</v>
       </c>
       <c r="D227">
-        <v>109.4166641235352</v>
+        <v>109.3742779765798</v>
       </c>
       <c r="E227">
-        <v>25.35543823242188</v>
+        <v>25.35876514421632</v>
       </c>
       <c r="F227">
-        <v>31.25556182861328</v>
+        <v>31.28342566161763</v>
       </c>
       <c r="G227">
-        <v>19.4516658782959</v>
+        <v>19.43063673024466</v>
       </c>
     </row>
     <row r="228">
@@ -5603,16 +5603,16 @@
         <v>5.4</v>
       </c>
       <c r="D228">
-        <v>109.4166641235352</v>
+        <v>109.5636506986054</v>
       </c>
       <c r="E228">
-        <v>25.35543823242188</v>
+        <v>25.35397361031067</v>
       </c>
       <c r="F228">
-        <v>31.25556182861328</v>
+        <v>31.28664896017649</v>
       </c>
       <c r="G228">
-        <v>19.4516658782959</v>
+        <v>19.41878311256297</v>
       </c>
     </row>
     <row r="229">
@@ -5626,16 +5626,16 @@
         <v>4.65</v>
       </c>
       <c r="D229">
-        <v>104.8333358764648</v>
+        <v>104.9672329794965</v>
       </c>
       <c r="E229">
-        <v>25.71100044250488</v>
+        <v>25.66948643723033</v>
       </c>
       <c r="F229">
-        <v>31.33504104614258</v>
+        <v>31.32594556808813</v>
       </c>
       <c r="G229">
-        <v>20.08818817138672</v>
+        <v>20.01394722972331</v>
       </c>
     </row>
     <row r="230">
@@ -5649,16 +5649,16 @@
         <v>1.37</v>
       </c>
       <c r="D230">
-        <v>105.25</v>
+        <v>105.4427067371065</v>
       </c>
       <c r="E230">
-        <v>25.57991600036621</v>
+        <v>25.60924781917938</v>
       </c>
       <c r="F230">
-        <v>31.29720878601074</v>
+        <v>31.33613162345051</v>
       </c>
       <c r="G230">
-        <v>19.86299896240234</v>
+        <v>19.8831179854245</v>
       </c>
     </row>
     <row r="231">
@@ -5672,16 +5672,16 @@
         <v>4.86</v>
       </c>
       <c r="D231">
-        <v>107</v>
+        <v>107.0715719024294</v>
       </c>
       <c r="E231">
-        <v>25.57747840881348</v>
+        <v>25.5278772405016</v>
       </c>
       <c r="F231">
-        <v>31.41583251953125</v>
+        <v>31.35643935430103</v>
       </c>
       <c r="G231">
-        <v>19.74177169799805</v>
+        <v>19.69972456375394</v>
       </c>
     </row>
     <row r="232">
@@ -5695,16 +5695,16 @@
         <v>4.64</v>
       </c>
       <c r="D232">
-        <v>107</v>
+        <v>107.1341597242774</v>
       </c>
       <c r="E232">
-        <v>25.57747840881348</v>
+        <v>25.53022618483531</v>
       </c>
       <c r="F232">
-        <v>31.41583251953125</v>
+        <v>31.36373909103563</v>
       </c>
       <c r="G232">
-        <v>19.74177169799805</v>
+        <v>19.69711578518401</v>
       </c>
     </row>
     <row r="233">
@@ -5718,16 +5718,16 @@
         <v>7.11</v>
       </c>
       <c r="D233">
-        <v>108.5</v>
+        <v>108.314617518168</v>
       </c>
       <c r="E233">
-        <v>25.46345901489258</v>
+        <v>25.46090430947563</v>
       </c>
       <c r="F233">
-        <v>31.34900093078613</v>
+        <v>31.33694933710776</v>
       </c>
       <c r="G233">
-        <v>19.57781219482422</v>
+        <v>19.58417840401094</v>
       </c>
     </row>
     <row r="234">
@@ -5741,16 +5741,16 @@
         <v>4.49</v>
       </c>
       <c r="D234">
-        <v>108.5</v>
+        <v>108.6106633398046</v>
       </c>
       <c r="E234">
-        <v>25.46345901489258</v>
+        <v>25.40750443778372</v>
       </c>
       <c r="F234">
-        <v>31.34900093078613</v>
+        <v>31.29431339243412</v>
       </c>
       <c r="G234">
-        <v>19.57781219482422</v>
+        <v>19.51818539391969</v>
       </c>
     </row>
     <row r="235">
@@ -5764,16 +5764,16 @@
         <v>4.21</v>
       </c>
       <c r="D235">
-        <v>109.4166641235352</v>
+        <v>109.3143590871876</v>
       </c>
       <c r="E235">
-        <v>25.35543823242188</v>
+        <v>25.36018704280273</v>
       </c>
       <c r="F235">
-        <v>31.25556182861328</v>
+        <v>31.28505424978516</v>
       </c>
       <c r="G235">
-        <v>19.4516658782959</v>
+        <v>19.43158573602538</v>
       </c>
     </row>
     <row r="236">
@@ -5787,16 +5787,16 @@
         <v>4.59</v>
       </c>
       <c r="D236">
-        <v>109.4166641235352</v>
+        <v>109.3766434812086</v>
       </c>
       <c r="E236">
-        <v>25.35543823242188</v>
+        <v>25.35887161845578</v>
       </c>
       <c r="F236">
-        <v>31.25556182861328</v>
+        <v>31.2822873921034</v>
       </c>
       <c r="G236">
-        <v>19.4516658782959</v>
+        <v>19.43198467987554</v>
       </c>
     </row>
     <row r="237">
@@ -5810,16 +5810,16 @@
         <v>5.63</v>
       </c>
       <c r="D237">
-        <v>109.4166641235352</v>
+        <v>109.6078505818881</v>
       </c>
       <c r="E237">
-        <v>25.35543823242188</v>
+        <v>25.35353250296349</v>
       </c>
       <c r="F237">
-        <v>31.25556182861328</v>
+        <v>31.28231216820632</v>
       </c>
       <c r="G237">
-        <v>19.4516658782959</v>
+        <v>19.42239438807638</v>
       </c>
     </row>
     <row r="238">
@@ -5833,16 +5833,16 @@
         <v>6.41</v>
       </c>
       <c r="D238">
-        <v>27.58333396911621</v>
+        <v>27.87547485043538</v>
       </c>
       <c r="E238">
-        <v>6.108145713806152</v>
+        <v>6.102312702398134</v>
       </c>
       <c r="F238">
-        <v>11.02410411834717</v>
+        <v>10.9976333360512</v>
       </c>
       <c r="G238">
-        <v>1.194937467575073</v>
+        <v>1.2094664284256</v>
       </c>
     </row>
     <row r="239">
@@ -5856,16 +5856,16 @@
         <v>-1.17</v>
       </c>
       <c r="D239">
-        <v>29.83333396911621</v>
+        <v>31.07030185009102</v>
       </c>
       <c r="E239">
-        <v>4.336916923522949</v>
+        <v>4.732075953219939</v>
       </c>
       <c r="F239">
-        <v>9.204604148864746</v>
+        <v>9.632691093183951</v>
       </c>
       <c r="G239">
-        <v>-0.5300000309944153</v>
+        <v>-0.1675910821713456</v>
       </c>
     </row>
     <row r="240">
@@ -5879,16 +5879,16 @@
         <v>5.93</v>
       </c>
       <c r="D240">
-        <v>27</v>
+        <v>28.24277216582535</v>
       </c>
       <c r="E240">
-        <v>5.552437782287598</v>
+        <v>4.979409699255264</v>
       </c>
       <c r="F240">
-        <v>10.54518795013428</v>
+        <v>9.964668961601621</v>
       </c>
       <c r="G240">
-        <v>0.5580416917800903</v>
+        <v>-0.006375168468128495</v>
       </c>
     </row>
     <row r="241">
@@ -5902,16 +5902,16 @@
         <v>4.96</v>
       </c>
       <c r="D241">
-        <v>43.33333206176758</v>
+        <v>48.66890553846652</v>
       </c>
       <c r="E241">
-        <v>7.639750003814697</v>
+        <v>6.85227733453408</v>
       </c>
       <c r="F241">
-        <v>11.9370002746582</v>
+        <v>11.22816793477806</v>
       </c>
       <c r="G241">
-        <v>3.341375112533569</v>
+        <v>2.475501700215538</v>
       </c>
     </row>
     <row r="242">
@@ -5925,16 +5925,16 @@
         <v>2.51</v>
       </c>
       <c r="D242">
-        <v>31.5</v>
+        <v>35.25970525121998</v>
       </c>
       <c r="E242">
-        <v>6.14033317565918</v>
+        <v>5.217696900898138</v>
       </c>
       <c r="F242">
-        <v>10.88162517547607</v>
+        <v>9.894339112521887</v>
       </c>
       <c r="G242">
-        <v>1.399437546730042</v>
+        <v>0.5410711128824486</v>
       </c>
     </row>
     <row r="243">
@@ -5948,16 +5948,16 @@
         <v>2.33</v>
       </c>
       <c r="D243">
-        <v>27.58333396911621</v>
+        <v>28.34112520876661</v>
       </c>
       <c r="E243">
-        <v>6.108145713806152</v>
+        <v>6.104763589380969</v>
       </c>
       <c r="F243">
-        <v>11.02410411834717</v>
+        <v>10.94456725934609</v>
       </c>
       <c r="G243">
-        <v>1.194937467575073</v>
+        <v>1.266126805612745</v>
       </c>
     </row>
     <row r="244">
@@ -5971,16 +5971,16 @@
         <v>4.11</v>
       </c>
       <c r="D244">
-        <v>31.5</v>
+        <v>31.25206039287813</v>
       </c>
       <c r="E244">
-        <v>6.14033317565918</v>
+        <v>5.414577002561463</v>
       </c>
       <c r="F244">
-        <v>10.88162517547607</v>
+        <v>10.15762789978319</v>
       </c>
       <c r="G244">
-        <v>1.399437546730042</v>
+        <v>0.6715653415922203</v>
       </c>
     </row>
     <row r="245">
@@ -5994,16 +5994,16 @@
         <v>3.27</v>
       </c>
       <c r="D245">
-        <v>27</v>
+        <v>26.83624741339876</v>
       </c>
       <c r="E245">
-        <v>5.552437782287598</v>
+        <v>5.729558179182327</v>
       </c>
       <c r="F245">
-        <v>10.54518795013428</v>
+        <v>10.73787730490037</v>
       </c>
       <c r="G245">
-        <v>0.5580416917800903</v>
+        <v>0.7200508525298114</v>
       </c>
     </row>
     <row r="246">
@@ -6017,16 +6017,16 @@
         <v>-1.21</v>
       </c>
       <c r="D246">
-        <v>45.91666793823242</v>
+        <v>44.28665110204869</v>
       </c>
       <c r="E246">
-        <v>4.151625156402588</v>
+        <v>4.857730406191163</v>
       </c>
       <c r="F246">
-        <v>8.995645523071289</v>
+        <v>9.771078805121869</v>
       </c>
       <c r="G246">
-        <v>-0.6933125257492065</v>
+        <v>-0.05608071431623565</v>
       </c>
     </row>
     <row r="247">
@@ -6040,16 +6040,16 @@
         <v>5.73</v>
       </c>
       <c r="D247">
-        <v>35.25</v>
+        <v>34.47510720386698</v>
       </c>
       <c r="E247">
-        <v>2.800479173660278</v>
+        <v>2.916227386173693</v>
       </c>
       <c r="F247">
-        <v>7.63322925567627</v>
+        <v>7.811115629090386</v>
       </c>
       <c r="G247">
-        <v>-2.030541658401489</v>
+        <v>-1.977345196791109</v>
       </c>
     </row>
     <row r="248">
@@ -6063,16 +6063,16 @@
         <v>2.3</v>
       </c>
       <c r="D248">
-        <v>51.66666793823242</v>
+        <v>52.15916476655274</v>
       </c>
       <c r="E248">
-        <v>4.433374881744385</v>
+        <v>5.154074326967562</v>
       </c>
       <c r="F248">
-        <v>9.048062324523926</v>
+        <v>9.750703383287481</v>
       </c>
       <c r="G248">
-        <v>-0.181937500834465</v>
+        <v>0.5566179270436845</v>
       </c>
     </row>
     <row r="249">
@@ -6086,16 +6086,16 @@
         <v>2.37</v>
       </c>
       <c r="D249">
-        <v>59.33333206176758</v>
+        <v>56.12862204074081</v>
       </c>
       <c r="E249">
-        <v>5.722312450408936</v>
+        <v>5.125818761310558</v>
       </c>
       <c r="F249">
-        <v>10.22893714904785</v>
+        <v>9.664267682670571</v>
       </c>
       <c r="G249">
-        <v>1.217104077339172</v>
+        <v>0.5876062096779169</v>
       </c>
     </row>
     <row r="250">
@@ -6109,16 +6109,16 @@
         <v>-1.33</v>
       </c>
       <c r="D250">
-        <v>76</v>
+        <v>73.0324620215638</v>
       </c>
       <c r="E250">
-        <v>5.204479217529297</v>
+        <v>4.283534906243473</v>
       </c>
       <c r="F250">
-        <v>9.32349967956543</v>
+        <v>8.478625987591181</v>
       </c>
       <c r="G250">
-        <v>1.086812496185303</v>
+        <v>0.08913781094477886</v>
       </c>
     </row>
     <row r="251">
@@ -6132,16 +6132,16 @@
         <v>-0.93</v>
       </c>
       <c r="D251">
-        <v>76</v>
+        <v>73.54407170630353</v>
       </c>
       <c r="E251">
-        <v>5.204479217529297</v>
+        <v>4.24434466373549</v>
       </c>
       <c r="F251">
-        <v>9.32349967956543</v>
+        <v>8.43295375717236</v>
       </c>
       <c r="G251">
-        <v>1.086812496185303</v>
+        <v>0.05641804741400971</v>
       </c>
     </row>
     <row r="252">
@@ -6155,16 +6155,16 @@
         <v>-2.34</v>
       </c>
       <c r="D252">
-        <v>73.5</v>
+        <v>73.15314285911131</v>
       </c>
       <c r="E252">
-        <v>5.199770927429199</v>
+        <v>4.88321171067753</v>
       </c>
       <c r="F252">
-        <v>9.45702075958252</v>
+        <v>9.164505710396176</v>
       </c>
       <c r="G252">
-        <v>0.9431874752044678</v>
+        <v>0.6023874448013142</v>
       </c>
     </row>
     <row r="253">
@@ -6178,16 +6178,16 @@
         <v>-0.22</v>
       </c>
       <c r="D253">
-        <v>65.58333587646484</v>
+        <v>70.50274736393595</v>
       </c>
       <c r="E253">
-        <v>3.815312385559082</v>
+        <v>4.259258533163258</v>
       </c>
       <c r="F253">
-        <v>8.106020927429199</v>
+        <v>8.503743551969286</v>
       </c>
       <c r="G253">
-        <v>-0.4752291738986969</v>
+        <v>0.01539759426516787</v>
       </c>
     </row>
     <row r="254">
@@ -6201,16 +6201,16 @@
         <v>1</v>
       </c>
       <c r="D254">
-        <v>73.5</v>
+        <v>70.85057125134931</v>
       </c>
       <c r="E254">
-        <v>5.199770927429199</v>
+        <v>5.120267780361241</v>
       </c>
       <c r="F254">
-        <v>9.45702075958252</v>
+        <v>9.425429715020629</v>
       </c>
       <c r="G254">
-        <v>0.9431874752044678</v>
+        <v>0.8152891674531101</v>
       </c>
     </row>
     <row r="255">
@@ -6224,16 +6224,16 @@
         <v>-3.74</v>
       </c>
       <c r="D255">
-        <v>73.5</v>
+        <v>80.97039630959813</v>
       </c>
       <c r="E255">
-        <v>5.199770927429199</v>
+        <v>3.928115195414788</v>
       </c>
       <c r="F255">
-        <v>9.45702075958252</v>
+        <v>8.179314609953458</v>
       </c>
       <c r="G255">
-        <v>0.9431874752044678</v>
+        <v>-0.322807722065627</v>
       </c>
     </row>
     <row r="256">
@@ -6247,16 +6247,16 @@
         <v>4.18</v>
       </c>
       <c r="D256">
-        <v>35.25</v>
+        <v>34.03510159807193</v>
       </c>
       <c r="E256">
-        <v>2.800479173660278</v>
+        <v>3.03822523156832</v>
       </c>
       <c r="F256">
-        <v>7.63322925567627</v>
+        <v>7.963335082411517</v>
       </c>
       <c r="G256">
-        <v>-2.030541658401489</v>
+        <v>-1.885777775575868</v>
       </c>
     </row>
     <row r="257">
@@ -6270,16 +6270,16 @@
         <v>2.33</v>
       </c>
       <c r="D257">
-        <v>73.5</v>
+        <v>81.05333759899236</v>
       </c>
       <c r="E257">
-        <v>5.199770927429199</v>
+        <v>3.950807616453676</v>
       </c>
       <c r="F257">
-        <v>9.45702075958252</v>
+        <v>8.168809708010334</v>
       </c>
       <c r="G257">
-        <v>0.9431874752044678</v>
+        <v>-0.2666956697314714</v>
       </c>
     </row>
     <row r="258">
@@ -6293,16 +6293,16 @@
         <v>5.59</v>
       </c>
       <c r="D258">
-        <v>36.58333206176758</v>
+        <v>34.66702643791157</v>
       </c>
       <c r="E258">
-        <v>4.866437435150146</v>
+        <v>4.99068207380059</v>
       </c>
       <c r="F258">
-        <v>9.68287467956543</v>
+        <v>9.86127226912887</v>
       </c>
       <c r="G258">
-        <v>0.0508749894797802</v>
+        <v>0.1203337108290317</v>
       </c>
     </row>
     <row r="259">
@@ -6316,16 +6316,16 @@
         <v>2.6</v>
       </c>
       <c r="D259">
-        <v>32.58333206176758</v>
+        <v>31.27440023710158</v>
       </c>
       <c r="E259">
-        <v>4.48799991607666</v>
+        <v>4.366411186660216</v>
       </c>
       <c r="F259">
-        <v>9.41447925567627</v>
+        <v>9.264242077977269</v>
       </c>
       <c r="G259">
-        <v>-0.437645822763443</v>
+        <v>-0.53064462300019</v>
       </c>
     </row>
     <row r="260">
@@ -6339,16 +6339,16 @@
         <v>4.67</v>
       </c>
       <c r="D260">
-        <v>38.41666793823242</v>
+        <v>37.47922729092259</v>
       </c>
       <c r="E260">
-        <v>6.314437389373779</v>
+        <v>5.153611005261541</v>
       </c>
       <c r="F260">
-        <v>11.01339626312256</v>
+        <v>9.810665231147269</v>
       </c>
       <c r="G260">
-        <v>1.615291714668274</v>
+        <v>0.4963851599702725</v>
       </c>
     </row>
     <row r="261">
@@ -6362,16 +6362,16 @@
         <v>2.75</v>
       </c>
       <c r="D261">
-        <v>27</v>
+        <v>27.17936740879894</v>
       </c>
       <c r="E261">
-        <v>5.552437782287598</v>
+        <v>5.766581982736794</v>
       </c>
       <c r="F261">
-        <v>10.54518795013428</v>
+        <v>10.76887156799465</v>
       </c>
       <c r="G261">
-        <v>0.5580416917800903</v>
+        <v>0.7631806768160923</v>
       </c>
     </row>
     <row r="262">
@@ -6385,16 +6385,16 @@
         <v>5.91</v>
       </c>
       <c r="D262">
-        <v>23.66666603088379</v>
+        <v>25.08056917411334</v>
       </c>
       <c r="E262">
-        <v>5.320708274841309</v>
+        <v>5.473651441994148</v>
       </c>
       <c r="F262">
-        <v>10.37506294250488</v>
+        <v>10.43651717781817</v>
       </c>
       <c r="G262">
-        <v>0.2664166390895844</v>
+        <v>0.5105608837005807</v>
       </c>
     </row>
     <row r="263">
@@ -6408,16 +6408,16 @@
         <v>-1.63</v>
       </c>
       <c r="D263">
-        <v>29.83333396911621</v>
+        <v>31.09467124609599</v>
       </c>
       <c r="E263">
-        <v>4.336916923522949</v>
+        <v>4.749846295888156</v>
       </c>
       <c r="F263">
-        <v>9.204604148864746</v>
+        <v>9.651169734980332</v>
       </c>
       <c r="G263">
-        <v>-0.5300000309944153</v>
+        <v>-0.1505215579638635</v>
       </c>
     </row>
     <row r="264">
@@ -6431,16 +6431,16 @@
         <v>3.95</v>
       </c>
       <c r="D264">
-        <v>32.08333206176758</v>
+        <v>33.57787081032504</v>
       </c>
       <c r="E264">
-        <v>5.197520732879639</v>
+        <v>5.067902425680549</v>
       </c>
       <c r="F264">
-        <v>10.16425037384033</v>
+        <v>9.979595729108137</v>
       </c>
       <c r="G264">
-        <v>0.2303541451692581</v>
+        <v>0.1562179644992172</v>
       </c>
     </row>
     <row r="265">
@@ -6454,16 +6454,16 @@
         <v>4.59</v>
       </c>
       <c r="D265">
-        <v>26</v>
+        <v>25.82814640189072</v>
       </c>
       <c r="E265">
-        <v>6.048895835876465</v>
+        <v>5.158686648356484</v>
       </c>
       <c r="F265">
-        <v>10.94064617156982</v>
+        <v>10.08606104678844</v>
       </c>
       <c r="G265">
-        <v>1.156520843505859</v>
+        <v>0.2311391996217223</v>
       </c>
     </row>
     <row r="266">
@@ -6477,16 +6477,16 @@
         <v>-0.6</v>
       </c>
       <c r="D266">
-        <v>32.58333206176758</v>
+        <v>32.32430509497254</v>
       </c>
       <c r="E266">
-        <v>4.48799991607666</v>
+        <v>4.514294620237674</v>
       </c>
       <c r="F266">
-        <v>9.41447925567627</v>
+        <v>9.445115960805239</v>
       </c>
       <c r="G266">
-        <v>-0.437645822763443</v>
+        <v>-0.4161955710452548</v>
       </c>
     </row>
     <row r="267">
@@ -6500,16 +6500,16 @@
         <v>2.3</v>
       </c>
       <c r="D267">
-        <v>46.83333206176758</v>
+        <v>47.9630315415484</v>
       </c>
       <c r="E267">
-        <v>6.545520782470703</v>
+        <v>6.266649984785344</v>
       </c>
       <c r="F267">
-        <v>11.21939563751221</v>
+        <v>10.9210569682018</v>
       </c>
       <c r="G267">
-        <v>1.869249939918518</v>
+        <v>1.61010164049793</v>
       </c>
     </row>
     <row r="268">
@@ -6523,16 +6523,16 @@
         <v>-1.33</v>
       </c>
       <c r="D268">
-        <v>76</v>
+        <v>73.0324620215638</v>
       </c>
       <c r="E268">
-        <v>5.204479217529297</v>
+        <v>4.283534906243473</v>
       </c>
       <c r="F268">
-        <v>9.32349967956543</v>
+        <v>8.478625987591181</v>
       </c>
       <c r="G268">
-        <v>1.086812496185303</v>
+        <v>0.08913781094477886</v>
       </c>
     </row>
     <row r="269">
@@ -6546,16 +6546,16 @@
         <v>-1.23</v>
       </c>
       <c r="D269">
-        <v>80.58333587646484</v>
+        <v>81.46287078143591</v>
       </c>
       <c r="E269">
-        <v>3.682291507720947</v>
+        <v>3.805402129700283</v>
       </c>
       <c r="F269">
-        <v>8.012520790100098</v>
+        <v>8.081189030799422</v>
       </c>
       <c r="G269">
-        <v>-0.648812472820282</v>
+        <v>-0.4703362842737126</v>
       </c>
     </row>
     <row r="270">
@@ -6569,16 +6569,16 @@
         <v>-4.83</v>
       </c>
       <c r="D270">
-        <v>80.58333587646484</v>
+        <v>78.37195924710144</v>
       </c>
       <c r="E270">
-        <v>3.682291507720947</v>
+        <v>3.548423340731881</v>
       </c>
       <c r="F270">
-        <v>8.012520790100098</v>
+        <v>7.878639663959062</v>
       </c>
       <c r="G270">
-        <v>-0.648812472820282</v>
+        <v>-0.7821689315088807</v>
       </c>
     </row>
     <row r="271">
@@ -6592,16 +6592,16 @@
         <v>10.9</v>
       </c>
       <c r="D271">
-        <v>122</v>
+        <v>124.8967676791686</v>
       </c>
       <c r="E271">
-        <v>21.2121467590332</v>
+        <v>20.75750448175812</v>
       </c>
       <c r="F271">
-        <v>27.63433265686035</v>
+        <v>27.16222016675415</v>
       </c>
       <c r="G271">
-        <v>14.79031276702881</v>
+        <v>14.35295708154601</v>
       </c>
     </row>
     <row r="272">
@@ -6615,16 +6615,16 @@
         <v>5.1</v>
       </c>
       <c r="D272">
-        <v>129.8333282470703</v>
+        <v>128.8135872209321</v>
       </c>
       <c r="E272">
-        <v>19.55377006530762</v>
+        <v>19.67888547347259</v>
       </c>
       <c r="F272">
-        <v>25.57820892333984</v>
+        <v>25.72334344019755</v>
       </c>
       <c r="G272">
-        <v>13.52962493896484</v>
+        <v>13.63452460793452</v>
       </c>
     </row>
     <row r="273">
@@ -6638,16 +6638,16 @@
         <v>14</v>
       </c>
       <c r="D273">
-        <v>67.25</v>
+        <v>64.3621136416383</v>
       </c>
       <c r="E273">
-        <v>23.41979217529297</v>
+        <v>23.71686913867295</v>
       </c>
       <c r="F273">
-        <v>28.77689552307129</v>
+        <v>29.23335031188068</v>
       </c>
       <c r="G273">
-        <v>18.0631046295166</v>
+        <v>18.1997817934262</v>
       </c>
     </row>
     <row r="274">
@@ -6661,16 +6661,16 @@
         <v>4.12</v>
       </c>
       <c r="D274">
-        <v>102.0833358764648</v>
+        <v>101.6166367012137</v>
       </c>
       <c r="E274">
-        <v>20.89660453796387</v>
+        <v>20.88120517582814</v>
       </c>
       <c r="F274">
-        <v>27.00262451171875</v>
+        <v>27.00510186630359</v>
       </c>
       <c r="G274">
-        <v>14.79177093505859</v>
+        <v>14.75849043286135</v>
       </c>
     </row>
     <row r="275">
@@ -6684,16 +6684,16 @@
         <v>4.94</v>
       </c>
       <c r="D275">
-        <v>106.3333358764648</v>
+        <v>106.5741680145263</v>
       </c>
       <c r="E275">
-        <v>20.41606140136719</v>
+        <v>20.48194076538084</v>
       </c>
       <c r="F275">
-        <v>26.50466728210449</v>
+        <v>26.60168056488034</v>
       </c>
       <c r="G275">
-        <v>14.32789611816406</v>
+        <v>14.36342843055724</v>
       </c>
     </row>
     <row r="276">
@@ -6707,16 +6707,16 @@
         <v>0.4979</v>
       </c>
       <c r="D276">
-        <v>154.4166717529297</v>
+        <v>152.4460786729455</v>
       </c>
       <c r="E276">
-        <v>10.96727085113525</v>
+        <v>11.05539230086516</v>
       </c>
       <c r="F276">
-        <v>15.92449951171875</v>
+        <v>16.17102173287963</v>
       </c>
       <c r="G276">
-        <v>6.011520862579346</v>
+        <v>5.939956198303201</v>
       </c>
     </row>
     <row r="277">
@@ -6730,16 +6730,16 @@
         <v>-3.34</v>
       </c>
       <c r="D277">
-        <v>174.6666717529297</v>
+        <v>174.3294986081842</v>
       </c>
       <c r="E277">
-        <v>7.722875118255615</v>
+        <v>7.663790843084314</v>
       </c>
       <c r="F277">
-        <v>13.01966667175293</v>
+        <v>12.99612280166624</v>
       </c>
       <c r="G277">
-        <v>2.426312446594238</v>
+        <v>2.331621782262782</v>
       </c>
     </row>
     <row r="278">
@@ -6753,16 +6753,16 @@
         <v>-0.76</v>
       </c>
       <c r="D278">
-        <v>150.5833282470703</v>
+        <v>155.0373924881288</v>
       </c>
       <c r="E278">
-        <v>9.002896308898926</v>
+        <v>8.936139783052431</v>
       </c>
       <c r="F278">
-        <v>13.20660400390625</v>
+        <v>13.13961183273124</v>
       </c>
       <c r="G278">
-        <v>4.798041820526123</v>
+        <v>4.732030001767136</v>
       </c>
     </row>
     <row r="279">
@@ -6776,16 +6776,16 @@
         <v>3.75</v>
       </c>
       <c r="D279">
-        <v>34</v>
+        <v>34.00000000000009</v>
       </c>
       <c r="E279">
-        <v>15.3024377822876</v>
+        <v>15.30243778228761</v>
       </c>
       <c r="F279">
-        <v>22.65031242370605</v>
+        <v>22.65031242370606</v>
       </c>
       <c r="G279">
-        <v>7.955333232879639</v>
+        <v>7.955333232879652</v>
       </c>
     </row>
   </sheetData>
